--- a/output/basis_character_ver4.xlsx
+++ b/output/basis_character_ver4.xlsx
@@ -10,13 +10,15 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="all_char_list" sheetId="3" r:id="rId1"/>
-    <sheet name="case4~6" sheetId="1" r:id="rId2"/>
-    <sheet name="case4~6_미정정버전" sheetId="5" r:id="rId3"/>
-    <sheet name="case4~6_clear" sheetId="4" r:id="rId4"/>
-    <sheet name="113_char" sheetId="2" r:id="rId5"/>
+    <sheet name="case4~6_empty" sheetId="5" r:id="rId2"/>
+    <sheet name="case4~6" sheetId="1" r:id="rId3"/>
+    <sheet name="case4~6_개수우선순위적용" sheetId="6" r:id="rId4"/>
+    <sheet name="case4~6_clear" sheetId="4" r:id="rId5"/>
+    <sheet name="113_char" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2876">
   <si>
     <t>ㅌ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12942,10 +12944,6 @@
   </si>
   <si>
     <t>ㅡ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅂ(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13317,247 +13315,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">극
-근
-귿
-글
-긁
-금
-급
-긋
-긍
-끅
-끈
-끊
-끌
-끎
-끓
-끔
-끕
-끗
-끙
-끝
-늑
-는
-늘
-늙
-늚
-늠
-늡
-늣
-능
-늦
-늪
-득
-든
-듣
-들
-듦
-듬
-듭
-듯
-등
-뜩
-뜬
-뜯
-뜰
-뜸
-뜹
-뜻
-륵
-른
-를
-름
-릅
-릇
-릉
-릊
-릍
-릎
-믄
-믈
-믐
-믓
-븍
-븐
-블
-븜
-븝
-븟
-쁜
-쁠
-쁨
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쁩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-슥
-슨
-슬
-슭
-슴
-습
-슷
-승
-쓱
-쓴
-쓸
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쓺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-쓿
-씀
-씁
-윽
-은
-을
-읊
-음
-읍
-읏
-응
-읒
-읓
-읔
-읕
-읖
-읗
-즉
-즌
-즐
-즘
-즙
-즛
-증
-쯤
-쯧
-쯩
-측
-츤
-츨
-츰
-츱
-츳
-층
-큭
-큰
-클
-큼
-큽
-킁
-특
-튼
-튿
-틀
-틂
-틈
-틉
-틋
-픈
-플
-픔
-픕
-픗
-흑
-흔
-흖
-흗
-흘
-흙
-흠
-흡
-흣
-흥
-흩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쁩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅡ(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄷ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">국
+    <t>객
+갠
+갤
+갬
+갭
+갯
+갰
+갱
+깩
+깬
+깰
+깸
+깹
+깻
+깼
+깽
+낵
+낸
+낼
+냄
+냅
+냇
+냈
+냉
+댁
+댄
+댈
+댐
+댑
+댓
+댔
+댕
+땍
+땐
+땔
+땜
+땝
+땟
+땠
+땡
+랙
+랜
+랠
+램
+랩
+랫
+랬
+랭
+맥
+맨
+맬
+맴
+맵
+맷
+맸
+맹
+맺
+백
+밴
+밸
+뱀
+뱁
+뱃
+뱄
+뱅
+뱉
+빽
+뺀
+뺄
+뺌
+뺍
+뺏
+뺐
+뺑
+색
+샌
+샐
+샘
+샙
+샛
+샜
+생
+쌕
+쌘
+쌜
+쌤
+쌥
+쌨
+쌩
+액
+앤
+앨
+앰
+앱
+앳
+앴
+앵
+잭
+잰
+잴
+잼
+잽
+잿
+쟀
+쟁
+짹
+짼
+쨀
+쨈
+쨉
+쨋
+쨌
+쨍
+책
+챈
+챌
+챔
+챕
+챗
+챘
+챙
+캑
+캔
+캘
+캠
+캡
+캣
+캤
+캥
+택
+탠
+탤
+탬
+탭
+탯
+탰
+탱
+팩
+팬
+팰
+팸
+팹
+팻
+팼
+팽
+핵
+핸
+핼
+햄
+햅
+햇
+했
+행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국
 군
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>굳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+굳
 굴
 굵
 굶
@@ -13713,7 +13633,3209 @@
 훔
 훗
 훙</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉
+얹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곬
+돐
+옰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핥
+홅
+훑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값
+없
+엾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녘
+엌
+읔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넋
+몫
+밗
+삯
+섟
+싻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓
+닯
+덟
+떫
+밟
+섧
+얇
+엷
+짧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼲
+끊
+많
+않
+잖
+쟎
+짢
+찮
+챦
+흖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곯
+굻
+꿇
+끓
+닳
+뚫
+싫
+쓿
+앓
+옳
+잃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걘
+걜
+섄
+섈
+섐
+섕
+얜
+얠
+얩
+쟨
+쟬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겪
+깎
+꺾
+낚
+닦
+덖
+묶
+밖
+볶
+섞
+솎
+엮
+팎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갗
+꽃
+낯
+닻
+덫
+돛
+몇
+및
+빛
+숯
+옻
+윷
+읓
+좇
+쫓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갚
+겊
+깊
+높
+늪
+닢
+덮
+랖
+릎
+붚
+섶
+숲
+싶
+앞
+엎
+옆
+읖
+잎
+짚
+톺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갛
+겋
+낳
+넣
+놓
+닿
+땋
+떻
+랗
+렇
+맣
+멓
+뭏
+빻
+쌓
+얗
+옇
+읗
+좋
+찧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갉
+굵
+긁
+낡
+늙
+닭
+맑
+묽
+밝
+붉
+삵
+슭
+앍
+얽
+옭
+욹
+읽
+줅
+칡
+탉
+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늰
+늴
+띈
+띌
+띔
+띕
+씐
+씔
+씜
+읜
+읠
+읨
+읫
+틘
+틜
+틤
+틥
+흰
+흴
+흼
+흽
+힁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갖
+겆
+곶
+궂
+깆
+꽂
+꿎
+낮
+늦
+닺
+딪
+랒
+릊
+맞
+맺
+멎
+벚
+빚
+엊
+읒
+잊
+잦
+젖
+좆
+짖
+찢
+찾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같
+겉
+곁
+깥
+꼍
+끝
+낱
+돝
+릍
+맡
+뭍
+밑
+밭
+뱉
+볕
+붙
+샅
+솥
+숱
+앝
+얕
+옅
+읕
+짙
+팥
+홑
+흩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궷
+꿱
+꿴
+꿸
+뀀
+뀁
+뀄
+뒝
+쉑
+쉔
+쉘
+쉠
+쉥
+웩
+웬
+웰
+웸
+웹
+웽
+췐
+퀭
+훽
+휀
+휄
+휑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곈
+곌
+곕
+곗
+녠
+뎬
+롄
+롑
+롓
+볜
+셴
+셸
+솅
+쏀
+옌
+옐
+옘
+옙
+옛
+옜
+쳰
+촁
+톈
+폘
+폡
+폣
+혠
+혤
+혭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜
+괠
+괩
+괬
+괭
+꽥
+꽹
+됐
+뢨
+뵀
+쇈
+쇌
+쇔
+쇗
+쇘
+쐤
+왝
+왠
+왬
+왯
+왱
+좼
+좽
+쬈
+쾡
+홱
+홴
+횃
+횅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갇
+걷
+겯
+곧
+굳
+귿
+긷
+낟
+눋
+닫
+덛
+돋
+듣
+딛
+뜯
+맏
+묻
+믿
+받
+벋
+벧
+붇
+뻗
+삳
+섣
+숟
+싣
+쏟
+얻
+잗
+짇
+칟
+컫
+튿
+푿
+흗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궉
+권
+궐
+궜
+궝
+꿜
+꿨
+꿩
+눴
+뒀
+뤘
+뭔
+뭘
+뭡
+뭣
+붤
+붰
+쉈
+쒔
+웍
+원
+월
+웜
+웝
+웠
+웡
+줬
+쭸
+쭹
+췄
+퀀
+퀄
+퀑
+퉜
+풩
+훤
+훨
+훰
+훵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갊
+걺
+곪
+괆
+굶
+긺
+깖
+끎
+낢
+넒
+놂
+늚
+닒
+닮
+덞
+돎
+듦
+떪
+맒
+멂
+몲
+묾
+밂
+밞
+벎
+붊
+빎
+빪
+삶
+섦
+솖
+썲
+쏢
+쓺
+앎
+얾
+엶
+옮
+욺
+읾
+잚
+젊
+졺
+줆
+짊
+턺
+틂
+팖
+풂
+헒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굔
+굘
+굡
+굣
+뇩
+뇬
+뇰
+뇹
+뇻
+뇽
+룐
+룔
+룝
+룟
+룡
+묜
+묠
+묩
+묫
+뵨
+뿅
+쇽
+숀
+숄
+숌
+숍
+숏
+숑
+욕
+욘
+욜
+욤
+욥
+욧
+용
+죡
+죤
+죵
+쭁
+춈
+푠
+푤
+푭
+푯
+횬
+횰
+횹
+횻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갹
+갼
+걀
+걋
+걍
+꺅
+꺌
+냑
+냔
+냘
+냠
+냥
+략
+랸
+럇
+량
+먁
+먈
+먕
+뱍
+뱐
+뱝
+뺙
+뺨
+샥
+샨
+샬
+샴
+샵
+샷
+샹
+썅
+약
+얀
+얄
+얇
+얌
+얍
+얏
+양
+얕
+얗
+쟉
+쟌
+쟎
+쟐
+쟘
+쟝
+쨘
+쨩
+챤
+챦
+챨
+챰
+챵
+캭
+컁
+턍
+퍅
+향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽
+관
+괄
+괆
+괌
+괍
+괏
+광
+꽉
+꽐
+꽜
+꽝
+놘
+놜
+놨
+돤
+돨
+똴
+롼
+뢍
+뫈
+뫘
+뫙
+봔
+봤
+솩
+솬
+솰
+솽
+쏵
+쏸
+쐈
+왁
+완
+왈
+왐
+왑
+왓
+왔
+왕
+좍
+좔
+좝
+좟
+좡
+쫙
+쫠
+쫬
+촨
+촬
+촹
+콱
+콴
+콸
+쾀
+쾅
+퇀
+퐝
+확
+환
+활
+홧
+황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균
+귤
+뉵
+뉼
+늄
+늅
+늉
+듄
+듈
+듐
+듕
+륙
+륜
+률
+륨
+륩
+륫
+륭
+뮨
+뮬
+뮴
+뮷
+뷴
+뷸
+븀
+븃
+븅
+쁑
+슉
+슐
+슘
+슛
+슝
+쓩
+육
+윤
+율
+윰
+윱
+윳
+융
+윷
+쥰
+쥴
+쥼
+츈
+츌
+츔
+츙
+큔
+큘
+큠
+튠
+튤
+튬
+튱
+퓬
+퓰
+퓸
+퓻
+퓽
+휵
+휸
+휼
+흄
+흇
+흉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괵
+괸
+괼
+굄
+굅
+굇
+굉
+꾄
+꾈
+꾐
+꾑
+꾕
+뇐
+뇔
+뇜
+뇝
+뇟
+된
+될
+됨
+됩
+됫
+뙨
+뢴
+뢸
+룀
+룁
+룃
+룅
+묀
+묄
+묍
+묏
+묑
+뵉
+뵌
+뵐
+뵘
+뵙
+쇤
+쇨
+쇰
+쇱
+쇳
+쐰
+쐴
+쐼
+쐽
+왹
+왼
+욀
+욈
+욉
+욋
+욍
+죈
+죌
+죔
+죕
+죗
+죙
+쬔
+쬘
+쬠
+쬡
+쵠
+쵤
+쵬
+쵭
+쵯
+쵱
+쾰
+퇸
+툇
+툉
+푄
+획
+횐
+횔
+횝
+횟
+횡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귁
+귄
+귈
+귐
+귑
+귓
+뀐
+뀔
+뀜
+뀝
+뉜
+뉠
+뉨
+뉩
+뒨
+뒬
+뒵
+뒷
+뒹
+뛴
+뛸
+뜀
+뜁
+뜅
+뤽
+륀
+륄
+륌
+륏
+륑
+뮌
+뮐
+뷕
+뷘
+뷜
+뷩
+쉭
+쉰
+쉴
+쉼
+쉽
+쉿
+슁
+쒼
+윅
+윈
+윌
+윔
+윕
+윗
+윙
+쥑
+쥔
+쥘
+쥠
+쥡
+쥣
+췬
+췰
+췸
+췹
+췻
+췽
+퀵
+퀸
+퀼
+큄
+큅
+큇
+큉
+튁
+튄
+튈
+튐
+튑
+튕
+퓐
+퓔
+퓜
+퓟
+휙
+휜
+휠
+휨
+휩
+휫
+휭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔
+갰
+겄
+겠
+겼
+괬
+궜
+깠
+깼
+껐
+꼈
+꽜
+꿨
+뀄
+났
+냈
+넜
+넸
+녔
+놨
+눴
+닸
+댔
+뎄
+뎠
+됐
+뒀
+딨
+땄
+땠
+떴
+뗐
+뗬
+랐
+랬
+렀
+렸
+뢨
+뤘
+맸
+멨
+몄
+뫘
+밌
+뱄
+벴
+볐
+봤
+뵀
+붰
+빴
+뺐
+뻤
+뼜
+샀
+샜
+섰
+셌
+셨
+쇘
+쉈
+쌌
+쌨
+썼
+쐈
+쐤
+쒔
+았
+앴
+었
+였
+옜
+왔
+웠
+있
+잤
+쟀
+졌
+좼
+줬
+짰
+쨌
+쩠
+쪘
+쫬
+쬈
+쭸
+찼
+챘
+첬
+쳤
+췄
+캤
+컸
+켰
+탔
+탰
+텄
+텼
+퉜
+팠
+팼
+펐
+폈
+했
+혔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격
+겪
+견
+겯
+결
+겸
+겹
+겻
+겼
+경
+곁
+껸
+껼
+꼇
+꼈
+꼍
+녁
+년
+녈
+념
+녑
+녔
+녕
+녘
+뎐
+뎔
+뎠
+뎡
+뗬
+력
+련
+렬
+렴
+렵
+렷
+렸
+령
+멱
+면
+멸
+몃
+몄
+명
+몇
+벽
+변
+별
+볍
+볏
+볐
+병
+볕
+뼉
+뼘
+뼙
+뼛
+뼜
+뼝
+셕
+션
+셜
+셤
+셥
+셧
+셨
+셩
+역
+엮
+연
+열
+엶
+엷
+염
+엽
+엾
+엿
+였
+영
+옅
+옆
+옇
+젼
+졀
+졈
+졉
+졌
+졍
+쪘
+쳔
+쳤
+켠
+켤
+켬
+켭
+켯
+켰
+켱
+텬
+텼
+편
+펼
+폄
+폅
+폈
+평
+혁
+현
+혈
+혐
+협
+혓
+혔
+형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겐
+겔
+겜
+겝
+겟
+겠
+겡
+껙
+껜
+껨
+껫
+껭
+넥
+넨
+넬
+넴
+넵
+넷
+넸
+넹
+덱
+덴
+델
+뎀
+뎁
+뎃
+뎄
+뎅
+떽
+뗀
+뗄
+뗌
+뗍
+뗏
+뗐
+뗑
+렉
+렌
+렐
+렘
+렙
+렛
+렝
+멕
+멘
+멜
+멤
+멥
+멧
+멨
+멩
+벡
+벤
+벧
+벨
+벰
+벱
+벳
+벴
+벵
+뼁
+섹
+센
+셀
+셈
+셉
+셋
+셌
+셍
+쎈
+쎌
+엑
+엔
+엘
+엠
+엡
+엣
+엥
+젝
+젠
+젤
+젬
+젭
+젯
+젱
+쩽
+첵
+첸
+첼
+쳄
+쳅
+쳇
+쳉
+켁
+켄
+켈
+켐
+켑
+켓
+켕
+텍
+텐
+텔
+템
+텝
+텟
+텡
+펙
+펜
+펠
+펨
+펩
+펫
+펭
+헥
+헨
+헬
+헴
+헵
+헷
+헹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극
+근
+귿
+글
+긁
+금
+급
+긋
+긍
+끅
+끈
+끊
+끌
+끎
+끓
+끔
+끕
+끗
+끙
+끝
+늑
+는
+늘
+늙
+늚
+늠
+늡
+늣
+능
+늦
+늪
+득
+든
+듣
+들
+듦
+듬
+듭
+듯
+등
+뜩
+뜬
+뜯
+뜰
+뜸
+뜹
+뜻
+륵
+른
+를
+름
+릅
+릇
+릉
+릊
+릍
+릎
+믄
+믈
+믐
+믓
+븍
+븐
+블
+븜
+븝
+븟
+쁜
+쁠
+쁨
+쁩
+슥
+슨
+슬
+슭
+슴
+습
+슷
+승
+쓱
+쓴
+쓸
+쓺
+쓿
+씀
+씁
+윽
+은
+을
+읊
+음
+읍
+읏
+응
+읒
+읓
+읔
+읕
+읖
+읗
+즉
+즌
+즐
+즘
+즙
+즛
+증
+쯤
+쯧
+쯩
+측
+츤
+츨
+츰
+츱
+츳
+층
+큭
+큰
+클
+큼
+큽
+킁
+특
+튼
+튿
+틀
+틂
+틈
+틉
+틋
+픈
+플
+픔
+픕
+픗
+흑
+흔
+흖
+흗
+흘
+흙
+흠
+흡
+흣
+흥
+흩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄺ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄾ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄿ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅀ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅄ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅍ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅒ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅖ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅗ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">앉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄽ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>몫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+밗
+삯
+섟
+싻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+닯
+덟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>떫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+밟
+섧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얇
+엷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+짧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄼ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">꼲
+끊
+많
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>않</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+잖
+쟎
+짢
+찮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅒ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄲ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄿ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄵ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄽ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄾ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅄ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄳ(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄼ(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄶ(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅀ(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅒ(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갖
+겆
+곶
+궂
+깆
+꽂
+꿎
+낮
+늦
+닺
+딪
+랒
+릊
+맞
+맺
+멎
+벚
+빚
+엊
+읒
+잊
+잦
+젖
+좆
+짖
+찢
+찾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같
+겉
+곁
+깥
+꼍
+끝
+낱
+돝
+릍
+맡
+뭍
+밑
+밭
+뱉
+볕
+붙
+샅
+솥
+숱
+앝
+얕
+옅
+읕
+짙
+팥
+홑
+흩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곈
+곌
+곕
+곗
+녠
+뎬
+롄
+롑
+롓
+볜
+셴
+셸
+솅
+쏀
+옌
+옐
+옘
+옙
+옛
+옜
+쳰
+촁
+톈
+폘
+폡
+폣
+혠
+혤
+혭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜
+괠
+괩
+괬
+괭
+꽥
+꽹
+됐
+뢨
+뵀
+쇈
+쇌
+쇔
+쇗
+쇘
+쐤
+왝
+왠
+왬
+왯
+왱
+좼
+좽
+쬈
+쾡
+홱
+홴
+횃
+횅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case4(2.11개씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case5(3.8개씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case6(2.57개씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅕ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅓ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>걘
+걜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+섄
+섈
+섐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>섕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얜
+얠
+얩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쟨
+쟬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">곯
+굻
+꿇
+끓
+닳
+뚫
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>싫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쓿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앓
+옳
+잃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄲ(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>겪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+깎
+꺾
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+닦
+덖
+묶
+밖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>볶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>섞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+솎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+팎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅍ(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+꽃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+닻
+덫
+돛
+몇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+빛
+숯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옻
+윷
+읓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좇
+쫓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">핥
+홅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>훑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없
+엾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">곬
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>돐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>녘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엌
+읔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅜ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갚
+겊
+깊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+높
+늪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>닢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+덮
+랖
+릎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>붚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>섶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>숲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+싶
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앞
+엎
+옆
+읖
+잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+짚
+톺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갛
+겋
+낳
+넣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+놓
+닿
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>땋
+떻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+랗
+렇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맣
+멓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뭏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+빻
+쌓
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얗
+옇
+읗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좋
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄺ(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅢ(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+굵
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>긁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+늙
+닭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맑
+묽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+밝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>붉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삵
+슭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앍
+얽
+옭
+욹
+읽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+줅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>칡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+탉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">늰
+늴
+띈
+띌
+띔
+띕
+씐
+씔
+씜
+읜
+읠
+읨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>읫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+틘
+틜
+틤
+틥
+흰
+흴
+흼
+흽
+힁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅞ(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뀄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">궷
+꿱
+꿴
+꿸
+뀀
+뀁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뀄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뒝
+쉑
+쉔
+쉘
+쉠
+쉥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>웩
+웬
+웰
+웸
+웹
+웽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+췐
+퀭
+훽
+휀
+휄
+휑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ(27)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13721,7 +16843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13815,6 +16937,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -13871,7 +17001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13999,6 +17129,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14283,14 +17422,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S160" workbookViewId="0">
-      <selection activeCell="AN171" sqref="AN171"/>
+    <sheetView tabSelected="1" topLeftCell="X157" workbookViewId="0">
+      <selection activeCell="AO184" sqref="AO184"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="45" t="s">
         <v>197</v>
       </c>
       <c r="B1" t="s">
@@ -14321,11 +17463,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+    <row r="2" spans="1:19">
+      <c r="A2" s="45"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:19">
+      <c r="A3" s="45"/>
       <c r="B3" s="24" t="s">
         <v>338</v>
       </c>
@@ -14381,8 +17523,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:19">
+      <c r="A4" s="45"/>
       <c r="B4" s="1"/>
       <c r="C4" s="27"/>
       <c r="D4" s="1"/>
@@ -14393,8 +17535,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:19">
+      <c r="A5" s="45"/>
       <c r="B5" s="24" t="s">
         <v>348</v>
       </c>
@@ -14447,8 +17589,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="45"/>
       <c r="B6" s="1"/>
       <c r="C6" s="27"/>
       <c r="D6" s="1"/>
@@ -14459,8 +17601,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:19">
+      <c r="A7" s="45"/>
       <c r="B7" s="24" t="s">
         <v>356</v>
       </c>
@@ -14513,8 +17655,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:19">
+      <c r="A8" s="45"/>
       <c r="B8" s="1"/>
       <c r="C8" s="27"/>
       <c r="D8" s="1"/>
@@ -14525,8 +17667,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="45"/>
       <c r="B9" s="24" t="s">
         <v>364</v>
       </c>
@@ -14579,8 +17721,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="45"/>
       <c r="B10" s="1"/>
       <c r="C10" s="27"/>
       <c r="D10" s="1"/>
@@ -14591,8 +17733,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="45"/>
       <c r="B11" s="24" t="s">
         <v>372</v>
       </c>
@@ -14639,8 +17781,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:19">
+      <c r="A12" s="45"/>
       <c r="B12" s="1"/>
       <c r="C12" s="27"/>
       <c r="D12" s="1"/>
@@ -14651,8 +17793,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:19">
+      <c r="A13" s="45"/>
       <c r="B13" s="24" t="s">
         <v>378</v>
       </c>
@@ -14705,8 +17847,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:19">
+      <c r="A14" s="45"/>
       <c r="B14" s="1"/>
       <c r="C14" s="27"/>
       <c r="D14" s="1"/>
@@ -14717,8 +17859,8 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:19">
+      <c r="A15" s="45"/>
       <c r="B15" s="26" t="s">
         <v>386</v>
       </c>
@@ -14771,8 +17913,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:19">
+      <c r="A16" s="45"/>
       <c r="B16" s="1"/>
       <c r="C16" s="27"/>
       <c r="D16" s="1"/>
@@ -14783,8 +17925,8 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:19">
+      <c r="A17" s="45"/>
       <c r="B17" s="24" t="s">
         <v>394</v>
       </c>
@@ -14837,8 +17979,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:19">
+      <c r="A18" s="45"/>
       <c r="B18" s="1"/>
       <c r="C18" s="27"/>
       <c r="D18" s="1"/>
@@ -14849,8 +17991,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:19">
+      <c r="A19" s="45"/>
       <c r="B19" s="24" t="s">
         <v>402</v>
       </c>
@@ -14900,8 +18042,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:19">
+      <c r="A20" s="45"/>
       <c r="B20" s="1"/>
       <c r="C20" s="27"/>
       <c r="D20" s="1"/>
@@ -14912,8 +18054,8 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:19">
+      <c r="A21" s="45"/>
       <c r="B21" s="24" t="s">
         <v>409</v>
       </c>
@@ -14969,8 +18111,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:19">
+      <c r="A22" s="45"/>
       <c r="B22" s="1"/>
       <c r="C22" s="27"/>
       <c r="D22" s="1"/>
@@ -14981,8 +18123,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:19">
+      <c r="A23" s="45"/>
       <c r="B23" s="26" t="s">
         <v>418</v>
       </c>
@@ -15026,8 +18168,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:19">
+      <c r="A24" s="45"/>
       <c r="B24" s="1"/>
       <c r="C24" s="27"/>
       <c r="D24" s="1"/>
@@ -15038,8 +18180,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:19">
+      <c r="A25" s="45"/>
       <c r="B25" s="24" t="s">
         <v>423</v>
       </c>
@@ -15095,8 +18237,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:19">
+      <c r="A26" s="45"/>
       <c r="B26" s="1"/>
       <c r="C26" s="27"/>
       <c r="D26" s="1"/>
@@ -15107,8 +18249,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:19">
+      <c r="A27" s="45"/>
       <c r="B27" s="26" t="s">
         <v>432</v>
       </c>
@@ -15164,8 +18306,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:19">
+      <c r="A28" s="45"/>
       <c r="B28" s="1"/>
       <c r="C28" s="27"/>
       <c r="D28" s="1"/>
@@ -15176,8 +18318,8 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:19">
+      <c r="A29" s="45"/>
       <c r="B29" s="24" t="s">
         <v>441</v>
       </c>
@@ -15227,8 +18369,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:19">
+      <c r="A30" s="45"/>
       <c r="B30" s="1"/>
       <c r="C30" s="27"/>
       <c r="D30" s="1"/>
@@ -15239,8 +18381,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:19">
+      <c r="A31" s="45"/>
       <c r="B31" s="24" t="s">
         <v>448</v>
       </c>
@@ -15293,8 +18435,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:19">
+      <c r="A32" s="45"/>
       <c r="B32" s="1"/>
       <c r="C32" s="27"/>
       <c r="D32" s="1"/>
@@ -15305,8 +18447,8 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:41">
+      <c r="A33" s="45"/>
       <c r="B33" s="24" t="s">
         <v>456</v>
       </c>
@@ -15359,8 +18501,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:41">
+      <c r="A34" s="45"/>
       <c r="B34" s="1"/>
       <c r="C34" s="27"/>
       <c r="D34" s="1"/>
@@ -15371,8 +18513,8 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:41">
+      <c r="A35" s="45"/>
       <c r="B35" s="24" t="s">
         <v>464</v>
       </c>
@@ -15425,8 +18567,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:41">
+      <c r="A36" s="45"/>
       <c r="B36" s="1"/>
       <c r="C36" s="27"/>
       <c r="D36" s="1"/>
@@ -15437,8 +18579,8 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:41">
+      <c r="A37" s="45"/>
       <c r="B37" s="24" t="s">
         <v>472</v>
       </c>
@@ -15491,8 +18633,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:41">
+      <c r="A38" s="45"/>
       <c r="B38" s="1"/>
       <c r="C38" s="27"/>
       <c r="D38" s="1"/>
@@ -15503,8 +18645,8 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:41">
+      <c r="A39" s="45"/>
       <c r="B39" s="24" t="s">
         <v>480</v>
       </c>
@@ -15557,8 +18699,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:41">
+      <c r="A40" s="45"/>
       <c r="B40" s="1"/>
       <c r="C40" s="27"/>
       <c r="D40" s="1"/>
@@ -15569,7 +18711,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41">
       <c r="B41" t="s">
         <v>488</v>
       </c>
@@ -15691,13 +18833,13 @@
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:41">
+      <c r="A42" s="45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:41">
+      <c r="A43" s="45"/>
       <c r="B43" t="s">
         <v>489</v>
       </c>
@@ -15714,11 +18856,11 @@
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:41">
+      <c r="A44" s="45"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:41">
+      <c r="A45" s="45"/>
       <c r="B45" s="24" t="s">
         <v>494</v>
       </c>
@@ -15762,16 +18904,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:41">
+      <c r="A46" s="45"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:41">
+      <c r="A47" s="45"/>
       <c r="B47" s="24" t="s">
         <v>499</v>
       </c>
@@ -15815,16 +18957,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:41">
+      <c r="A48" s="45"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
+    <row r="49" spans="1:15">
+      <c r="A49" s="45"/>
       <c r="B49" s="26" t="s">
         <v>504</v>
       </c>
@@ -15868,16 +19010,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:15">
+      <c r="A50" s="45"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:15">
+      <c r="A51" s="45"/>
       <c r="B51" s="24" t="s">
         <v>509</v>
       </c>
@@ -15921,16 +19063,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:15">
+      <c r="A52" s="45"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:15">
+      <c r="A53" s="45"/>
       <c r="B53" s="26" t="s">
         <v>514</v>
       </c>
@@ -15968,16 +19110,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
+    <row r="54" spans="1:15">
+      <c r="A54" s="45"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:15">
+      <c r="A55" s="45"/>
       <c r="B55" s="24" t="s">
         <v>517</v>
       </c>
@@ -16021,16 +19163,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:15">
+      <c r="A56" s="45"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:15">
+      <c r="A57" s="45"/>
       <c r="B57" s="24" t="s">
         <v>522</v>
       </c>
@@ -16074,16 +19216,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:15">
+      <c r="A58" s="45"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:15">
+      <c r="A59" s="45"/>
       <c r="B59" s="24" t="s">
         <v>527</v>
       </c>
@@ -16127,16 +19269,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:15">
+      <c r="A60" s="45"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:15">
+      <c r="A61" s="45"/>
       <c r="B61" s="26" t="s">
         <v>532</v>
       </c>
@@ -16180,16 +19322,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:15">
+      <c r="A62" s="45"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:15">
+      <c r="A63" s="45"/>
       <c r="B63" s="24" t="s">
         <v>537</v>
       </c>
@@ -16233,16 +19375,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:15">
+      <c r="A64" s="45"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:15">
+      <c r="A65" s="45"/>
       <c r="B65" s="24" t="s">
         <v>542</v>
       </c>
@@ -16283,16 +19425,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:15">
+      <c r="A66" s="45"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:15">
+      <c r="A67" s="45"/>
       <c r="B67" s="24" t="s">
         <v>546</v>
       </c>
@@ -16336,16 +19478,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:15">
+      <c r="A68" s="45"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
+    <row r="69" spans="1:15">
+      <c r="A69" s="45"/>
       <c r="B69" s="24" t="s">
         <v>551</v>
       </c>
@@ -16389,16 +19531,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:15">
+      <c r="A70" s="45"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:15">
+      <c r="A71" s="45"/>
       <c r="B71" s="24" t="s">
         <v>556</v>
       </c>
@@ -16439,16 +19581,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:15">
+      <c r="A72" s="45"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:15">
+      <c r="A73" s="45"/>
       <c r="B73" s="24" t="s">
         <v>560</v>
       </c>
@@ -16492,16 +19634,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:15">
+      <c r="A74" s="45"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:15">
+      <c r="A75" s="45"/>
       <c r="B75" s="26" t="s">
         <v>565</v>
       </c>
@@ -16545,16 +19687,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
+    <row r="76" spans="1:15">
+      <c r="A76" s="45"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
+    <row r="77" spans="1:15">
+      <c r="A77" s="45"/>
       <c r="B77" s="24" t="s">
         <v>570</v>
       </c>
@@ -16598,16 +19740,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
+    <row r="78" spans="1:15">
+      <c r="A78" s="45"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
+    <row r="79" spans="1:15">
+      <c r="A79" s="45"/>
       <c r="B79" s="24" t="s">
         <v>575</v>
       </c>
@@ -16651,16 +19793,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
+    <row r="80" spans="1:15">
+      <c r="A80" s="45"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
+    <row r="81" spans="1:41">
+      <c r="A81" s="45"/>
       <c r="B81" s="24" t="s">
         <v>580</v>
       </c>
@@ -16704,15 +19846,15 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
+    <row r="82" spans="1:41">
+      <c r="A82" s="45"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41">
       <c r="B83" t="s">
         <v>488</v>
       </c>
@@ -16834,13 +19976,13 @@
         <v>488</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
+    <row r="84" spans="1:41">
+      <c r="A84" s="45" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
+    <row r="85" spans="1:41">
+      <c r="A85" s="45"/>
       <c r="B85" t="s">
         <v>585</v>
       </c>
@@ -16863,11 +20005,11 @@
         <v>591</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
+    <row r="86" spans="1:41">
+      <c r="A86" s="45"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
+    <row r="87" spans="1:41">
+      <c r="A87" s="45"/>
       <c r="B87" s="24" t="s">
         <v>592</v>
       </c>
@@ -16917,8 +20059,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
+    <row r="88" spans="1:41">
+      <c r="A88" s="45"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -16927,8 +20069,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
+    <row r="89" spans="1:41">
+      <c r="A89" s="45"/>
       <c r="B89" s="24" t="s">
         <v>599</v>
       </c>
@@ -16975,8 +20117,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
+    <row r="90" spans="1:41">
+      <c r="A90" s="45"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -16985,8 +20127,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
+    <row r="91" spans="1:41">
+      <c r="A91" s="45"/>
       <c r="B91" s="24" t="s">
         <v>605</v>
       </c>
@@ -17033,8 +20175,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
+    <row r="92" spans="1:41">
+      <c r="A92" s="45"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -17043,8 +20185,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
+    <row r="93" spans="1:41">
+      <c r="A93" s="45"/>
       <c r="B93" s="26" t="s">
         <v>611</v>
       </c>
@@ -17094,8 +20236,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
+    <row r="94" spans="1:41">
+      <c r="A94" s="45"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -17104,8 +20246,8 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
+    <row r="95" spans="1:41">
+      <c r="A95" s="45"/>
       <c r="B95" s="26" t="s">
         <v>618</v>
       </c>
@@ -17152,8 +20294,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
+    <row r="96" spans="1:41">
+      <c r="A96" s="45"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -17162,8 +20304,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
+    <row r="97" spans="1:17">
+      <c r="A97" s="45"/>
       <c r="B97" s="24" t="s">
         <v>624</v>
       </c>
@@ -17207,8 +20349,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
+    <row r="98" spans="1:17">
+      <c r="A98" s="45"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -17217,8 +20359,8 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
+    <row r="99" spans="1:17">
+      <c r="A99" s="45"/>
       <c r="B99" s="24" t="s">
         <v>629</v>
       </c>
@@ -17262,8 +20404,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
+    <row r="100" spans="1:17">
+      <c r="A100" s="45"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -17272,8 +20414,8 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
+    <row r="101" spans="1:17">
+      <c r="A101" s="45"/>
       <c r="B101" s="24" t="s">
         <v>634</v>
       </c>
@@ -17320,8 +20462,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
+    <row r="102" spans="1:17">
+      <c r="A102" s="45"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -17330,8 +20472,8 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
+    <row r="103" spans="1:17">
+      <c r="A103" s="45"/>
       <c r="B103" s="24" t="s">
         <v>347</v>
       </c>
@@ -17363,8 +20505,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
+    <row r="104" spans="1:17">
+      <c r="A104" s="45"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -17373,8 +20515,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
+    <row r="105" spans="1:17">
+      <c r="A105" s="45"/>
       <c r="B105" s="24" t="s">
         <v>641</v>
       </c>
@@ -17421,8 +20563,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
+    <row r="106" spans="1:17">
+      <c r="A106" s="45"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -17431,8 +20573,8 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
+    <row r="107" spans="1:17">
+      <c r="A107" s="45"/>
       <c r="B107" s="24" t="s">
         <v>647</v>
       </c>
@@ -17482,8 +20624,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
+    <row r="108" spans="1:17">
+      <c r="A108" s="45"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -17492,8 +20634,8 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
+    <row r="109" spans="1:17">
+      <c r="A109" s="45"/>
       <c r="B109" s="24" t="s">
         <v>654</v>
       </c>
@@ -17543,8 +20685,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
+    <row r="110" spans="1:17">
+      <c r="A110" s="45"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -17553,8 +20695,8 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
+    <row r="111" spans="1:17">
+      <c r="A111" s="45"/>
       <c r="B111" s="24" t="s">
         <v>661</v>
       </c>
@@ -17601,8 +20743,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="39"/>
+    <row r="112" spans="1:17">
+      <c r="A112" s="45"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -17611,8 +20753,8 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
+    <row r="113" spans="1:41">
+      <c r="A113" s="45"/>
       <c r="B113" s="24" t="s">
         <v>666</v>
       </c>
@@ -17656,8 +20798,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
+    <row r="114" spans="1:41">
+      <c r="A114" s="45"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -17666,8 +20808,8 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
+    <row r="115" spans="1:41">
+      <c r="A115" s="45"/>
       <c r="B115" s="24" t="s">
         <v>671</v>
       </c>
@@ -17711,8 +20853,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
+    <row r="116" spans="1:41">
+      <c r="A116" s="45"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -17721,8 +20863,8 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
+    <row r="117" spans="1:41">
+      <c r="A117" s="45"/>
       <c r="B117" s="24" t="s">
         <v>676</v>
       </c>
@@ -17769,8 +20911,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
+    <row r="118" spans="1:41">
+      <c r="A118" s="45"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -17779,8 +20921,8 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A119" s="39"/>
+    <row r="119" spans="1:41">
+      <c r="A119" s="45"/>
       <c r="B119" s="24" t="s">
         <v>682</v>
       </c>
@@ -17830,8 +20972,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
+    <row r="120" spans="1:41">
+      <c r="A120" s="45"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -17840,8 +20982,8 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
+    <row r="121" spans="1:41">
+      <c r="A121" s="45"/>
       <c r="B121" s="26" t="s">
         <v>689</v>
       </c>
@@ -17882,8 +21024,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
+    <row r="122" spans="1:41">
+      <c r="A122" s="45"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -17892,8 +21034,8 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
+    <row r="123" spans="1:41">
+      <c r="A123" s="45"/>
       <c r="B123" s="24" t="s">
         <v>693</v>
       </c>
@@ -17943,8 +21085,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
+    <row r="124" spans="1:41">
+      <c r="A124" s="45"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -17953,7 +21095,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:41">
       <c r="A125" s="31"/>
       <c r="B125" t="s">
         <v>488</v>
@@ -18076,13 +21218,13 @@
         <v>488</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A126" s="39" t="s">
+    <row r="126" spans="1:41">
+      <c r="A126" s="45" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A127" s="39"/>
+    <row r="127" spans="1:41">
+      <c r="A127" s="45"/>
       <c r="B127" t="s">
         <v>330</v>
       </c>
@@ -18116,11 +21258,11 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A128" s="39"/>
+    <row r="128" spans="1:41">
+      <c r="A128" s="45"/>
     </row>
-    <row r="129" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A129" s="39"/>
+    <row r="129" spans="1:99">
+      <c r="A129" s="45"/>
       <c r="B129" s="24" t="s">
         <v>701</v>
       </c>
@@ -18378,8 +21520,8 @@
       <c r="CT129" s="1"/>
       <c r="CU129" s="1"/>
     </row>
-    <row r="130" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A130" s="39"/>
+    <row r="130" spans="1:99">
+      <c r="A130" s="45"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -18479,8 +21621,8 @@
       <c r="CT130" s="1"/>
       <c r="CU130" s="1"/>
     </row>
-    <row r="131" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A131" s="39"/>
+    <row r="131" spans="1:99">
+      <c r="A131" s="45"/>
       <c r="B131" s="24" t="s">
         <v>779</v>
       </c>
@@ -18674,8 +21816,8 @@
       <c r="CT131" s="1"/>
       <c r="CU131" s="1"/>
     </row>
-    <row r="132" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A132" s="39"/>
+    <row r="132" spans="1:99">
+      <c r="A132" s="45"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -18775,8 +21917,8 @@
       <c r="CT132" s="1"/>
       <c r="CU132" s="1"/>
     </row>
-    <row r="133" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A133" s="39"/>
+    <row r="133" spans="1:99">
+      <c r="A133" s="45"/>
       <c r="B133" s="24" t="s">
         <v>825</v>
       </c>
@@ -19010,8 +22152,8 @@
       <c r="CT133" s="1"/>
       <c r="CU133" s="1"/>
     </row>
-    <row r="134" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
+    <row r="134" spans="1:99">
+      <c r="A134" s="45"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -19111,8 +22253,8 @@
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
     </row>
-    <row r="135" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A135" s="39"/>
+    <row r="135" spans="1:99">
+      <c r="A135" s="45"/>
       <c r="B135" s="24" t="s">
         <v>891</v>
       </c>
@@ -19334,8 +22476,8 @@
       <c r="CT135" s="1"/>
       <c r="CU135" s="1"/>
     </row>
-    <row r="136" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
+    <row r="136" spans="1:99">
+      <c r="A136" s="45"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -19435,8 +22577,8 @@
       <c r="CT136" s="1"/>
       <c r="CU136" s="1"/>
     </row>
-    <row r="137" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A137" s="39"/>
+    <row r="137" spans="1:99">
+      <c r="A137" s="45"/>
       <c r="B137" s="24" t="s">
         <v>947</v>
       </c>
@@ -19622,8 +22764,8 @@
       <c r="CT137" s="1"/>
       <c r="CU137" s="1"/>
     </row>
-    <row r="138" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A138" s="39"/>
+    <row r="138" spans="1:99">
+      <c r="A138" s="45"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -19723,8 +22865,8 @@
       <c r="CT138" s="1"/>
       <c r="CU138" s="1"/>
     </row>
-    <row r="139" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A139" s="39"/>
+    <row r="139" spans="1:99">
+      <c r="A139" s="45"/>
       <c r="B139" s="24" t="s">
         <v>988</v>
       </c>
@@ -19938,8 +23080,8 @@
       <c r="CT139" s="1"/>
       <c r="CU139" s="1"/>
     </row>
-    <row r="140" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A140" s="39"/>
+    <row r="140" spans="1:99">
+      <c r="A140" s="45"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -20039,8 +23181,8 @@
       <c r="CT140" s="1"/>
       <c r="CU140" s="1"/>
     </row>
-    <row r="141" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A141" s="39"/>
+    <row r="141" spans="1:99">
+      <c r="A141" s="45"/>
       <c r="B141" s="24" t="s">
         <v>1043</v>
       </c>
@@ -20266,8 +23408,8 @@
       <c r="CT141" s="1"/>
       <c r="CU141" s="1"/>
     </row>
-    <row r="142" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A142" s="39"/>
+    <row r="142" spans="1:99">
+      <c r="A142" s="45"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -20367,8 +23509,8 @@
       <c r="CT142" s="1"/>
       <c r="CU142" s="1"/>
     </row>
-    <row r="143" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A143" s="39"/>
+    <row r="143" spans="1:99">
+      <c r="A143" s="45"/>
       <c r="B143" s="24" t="s">
         <v>1104</v>
       </c>
@@ -20596,8 +23738,8 @@
       <c r="CT143" s="1"/>
       <c r="CU143" s="1"/>
     </row>
-    <row r="144" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A144" s="39"/>
+    <row r="144" spans="1:99">
+      <c r="A144" s="45"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -20697,8 +23839,8 @@
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
     </row>
-    <row r="145" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A145" s="39"/>
+    <row r="145" spans="1:99">
+      <c r="A145" s="45"/>
       <c r="B145" s="24" t="s">
         <v>1166</v>
       </c>
@@ -20882,8 +24024,8 @@
       <c r="CT145" s="1"/>
       <c r="CU145" s="1"/>
     </row>
-    <row r="146" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A146" s="39"/>
+    <row r="146" spans="1:99">
+      <c r="A146" s="45"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -20983,8 +24125,8 @@
       <c r="CT146" s="1"/>
       <c r="CU146" s="1"/>
     </row>
-    <row r="147" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A147" s="39"/>
+    <row r="147" spans="1:99">
+      <c r="A147" s="45"/>
       <c r="B147" s="24" t="s">
         <v>1203</v>
       </c>
@@ -21234,8 +24376,8 @@
       <c r="CT147" s="1"/>
       <c r="CU147" s="1"/>
     </row>
-    <row r="148" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A148" s="39"/>
+    <row r="148" spans="1:99">
+      <c r="A148" s="45"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -21335,8 +24477,8 @@
       <c r="CT148" s="1"/>
       <c r="CU148" s="1"/>
     </row>
-    <row r="149" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A149" s="39"/>
+    <row r="149" spans="1:99">
+      <c r="A149" s="45"/>
       <c r="B149" s="24" t="s">
         <v>1275</v>
       </c>
@@ -21506,8 +24648,8 @@
       <c r="CT149" s="1"/>
       <c r="CU149" s="1"/>
     </row>
-    <row r="150" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A150" s="39"/>
+    <row r="150" spans="1:99">
+      <c r="A150" s="45"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -21607,8 +24749,8 @@
       <c r="CT150" s="1"/>
       <c r="CU150" s="1"/>
     </row>
-    <row r="151" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A151" s="39"/>
+    <row r="151" spans="1:99">
+      <c r="A151" s="45"/>
       <c r="B151" s="24" t="s">
         <v>1308</v>
       </c>
@@ -21892,8 +25034,8 @@
       <c r="CT151" s="1"/>
       <c r="CU151" s="1"/>
     </row>
-    <row r="152" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A152" s="39"/>
+    <row r="152" spans="1:99">
+      <c r="A152" s="45"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -21993,8 +25135,8 @@
       <c r="CT152" s="1"/>
       <c r="CU152" s="1"/>
     </row>
-    <row r="153" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A153" s="39"/>
+    <row r="153" spans="1:99">
+      <c r="A153" s="45"/>
       <c r="B153" s="24" t="s">
         <v>1398</v>
       </c>
@@ -22218,8 +25360,8 @@
       <c r="CT153" s="1"/>
       <c r="CU153" s="1"/>
     </row>
-    <row r="154" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
+    <row r="154" spans="1:99">
+      <c r="A154" s="45"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -22319,8 +25461,8 @@
       <c r="CT154" s="1"/>
       <c r="CU154" s="1"/>
     </row>
-    <row r="155" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A155" s="39"/>
+    <row r="155" spans="1:99">
+      <c r="A155" s="45"/>
       <c r="B155" s="24" t="s">
         <v>1458</v>
       </c>
@@ -22496,8 +25638,8 @@
       <c r="CT155" s="1"/>
       <c r="CU155" s="1"/>
     </row>
-    <row r="156" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
+    <row r="156" spans="1:99">
+      <c r="A156" s="45"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -22597,8 +25739,8 @@
       <c r="CT156" s="1"/>
       <c r="CU156" s="1"/>
     </row>
-    <row r="157" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A157" s="39"/>
+    <row r="157" spans="1:99">
+      <c r="A157" s="45"/>
       <c r="B157" s="24" t="s">
         <v>1495</v>
       </c>
@@ -22800,8 +25942,8 @@
       <c r="CT157" s="1"/>
       <c r="CU157" s="1"/>
     </row>
-    <row r="158" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A158" s="39"/>
+    <row r="158" spans="1:99">
+      <c r="A158" s="45"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -22901,8 +26043,8 @@
       <c r="CT158" s="1"/>
       <c r="CU158" s="1"/>
     </row>
-    <row r="159" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A159" s="39"/>
+    <row r="159" spans="1:99">
+      <c r="A159" s="45"/>
       <c r="B159" s="24" t="s">
         <v>1545</v>
       </c>
@@ -23096,8 +26238,8 @@
       <c r="CT159" s="1"/>
       <c r="CU159" s="1"/>
     </row>
-    <row r="160" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A160" s="39"/>
+    <row r="160" spans="1:99">
+      <c r="A160" s="45"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -23197,8 +26339,8 @@
       <c r="CT160" s="1"/>
       <c r="CU160" s="1"/>
     </row>
-    <row r="161" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A161" s="39"/>
+    <row r="161" spans="1:99">
+      <c r="A161" s="45"/>
       <c r="B161" s="24" t="s">
         <v>1588</v>
       </c>
@@ -23386,8 +26528,8 @@
       <c r="CT161" s="1"/>
       <c r="CU161" s="1"/>
     </row>
-    <row r="162" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
+    <row r="162" spans="1:99">
+      <c r="A162" s="45"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -23487,8 +26629,8 @@
       <c r="CT162" s="1"/>
       <c r="CU162" s="1"/>
     </row>
-    <row r="163" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A163" s="39"/>
+    <row r="163" spans="1:99">
+      <c r="A163" s="45"/>
       <c r="B163" s="24" t="s">
         <v>1630</v>
       </c>
@@ -23690,8 +26832,8 @@
       <c r="CT163" s="1"/>
       <c r="CU163" s="1"/>
     </row>
-    <row r="164" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
+    <row r="164" spans="1:99">
+      <c r="A164" s="45"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -23791,8 +26933,8 @@
       <c r="CT164" s="1"/>
       <c r="CU164" s="1"/>
     </row>
-    <row r="165" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
+    <row r="165" spans="1:99">
+      <c r="A165" s="45"/>
       <c r="B165" s="24" t="s">
         <v>1680</v>
       </c>
@@ -23992,8 +27134,8 @@
       <c r="CT165" s="1"/>
       <c r="CU165" s="1"/>
     </row>
-    <row r="166" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A166" s="39"/>
+    <row r="166" spans="1:99">
+      <c r="A166" s="45"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -24089,7 +27231,7 @@
       <c r="CP166" s="1"/>
       <c r="CQ166" s="1"/>
     </row>
-    <row r="167" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:99">
       <c r="B167" t="s">
         <v>488</v>
       </c>
@@ -24211,13 +27353,13 @@
         <v>488</v>
       </c>
     </row>
-    <row r="168" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A168" s="39" t="s">
+    <row r="168" spans="1:99">
+      <c r="A168" s="45" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="169" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A169" s="39"/>
+    <row r="169" spans="1:99">
+      <c r="A169" s="45"/>
       <c r="B169" t="s">
         <v>489</v>
       </c>
@@ -24240,11 +27382,11 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A170" s="39"/>
+    <row r="170" spans="1:99">
+      <c r="A170" s="45"/>
     </row>
-    <row r="171" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A171" s="39"/>
+    <row r="171" spans="1:99">
+      <c r="A171" s="45"/>
       <c r="B171" s="24" t="s">
         <v>1729</v>
       </c>
@@ -24385,8 +27527,8 @@
       <c r="BI171" s="1"/>
       <c r="BJ171" s="1"/>
     </row>
-    <row r="172" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
+    <row r="172" spans="1:99">
+      <c r="A172" s="45"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -24449,8 +27591,8 @@
       <c r="BI172" s="1"/>
       <c r="BJ172" s="1"/>
     </row>
-    <row r="173" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A173" s="39"/>
+    <row r="173" spans="1:99">
+      <c r="A173" s="45"/>
       <c r="B173" s="24" t="s">
         <v>1767</v>
       </c>
@@ -24573,8 +27715,8 @@
       <c r="BI173" s="1"/>
       <c r="BJ173" s="1"/>
     </row>
-    <row r="174" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
+    <row r="174" spans="1:99">
+      <c r="A174" s="45"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -24637,8 +27779,8 @@
       <c r="BI174" s="1"/>
       <c r="BJ174" s="1"/>
     </row>
-    <row r="175" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
+    <row r="175" spans="1:99">
+      <c r="A175" s="45"/>
       <c r="B175" s="24" t="s">
         <v>1796</v>
       </c>
@@ -24781,8 +27923,8 @@
       <c r="BI175" s="1"/>
       <c r="BJ175" s="1"/>
     </row>
-    <row r="176" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
+    <row r="176" spans="1:99">
+      <c r="A176" s="45"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -24845,8 +27987,8 @@
       <c r="BI176" s="1"/>
       <c r="BJ176" s="1"/>
     </row>
-    <row r="177" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
+    <row r="177" spans="1:62">
+      <c r="A177" s="45"/>
       <c r="B177" s="24" t="s">
         <v>1835</v>
       </c>
@@ -24973,8 +28115,8 @@
       <c r="BI177" s="1"/>
       <c r="BJ177" s="1"/>
     </row>
-    <row r="178" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
+    <row r="178" spans="1:62">
+      <c r="A178" s="45"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -25037,8 +28179,8 @@
       <c r="BI178" s="1"/>
       <c r="BJ178" s="1"/>
     </row>
-    <row r="179" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
+    <row r="179" spans="1:62">
+      <c r="A179" s="45"/>
       <c r="B179" s="24" t="s">
         <v>1865</v>
       </c>
@@ -25135,8 +28277,8 @@
       <c r="BI179" s="1"/>
       <c r="BJ179" s="1"/>
     </row>
-    <row r="180" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
+    <row r="180" spans="1:62">
+      <c r="A180" s="45"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -25199,8 +28341,8 @@
       <c r="BI180" s="1"/>
       <c r="BJ180" s="1"/>
     </row>
-    <row r="181" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
+    <row r="181" spans="1:62">
+      <c r="A181" s="45"/>
       <c r="B181" s="24" t="s">
         <v>1881</v>
       </c>
@@ -25335,8 +28477,8 @@
       <c r="BI181" s="1"/>
       <c r="BJ181" s="1"/>
     </row>
-    <row r="182" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
+    <row r="182" spans="1:62">
+      <c r="A182" s="45"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -25399,8 +28541,8 @@
       <c r="BI182" s="1"/>
       <c r="BJ182" s="1"/>
     </row>
-    <row r="183" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A183" s="39"/>
+    <row r="183" spans="1:62">
+      <c r="A183" s="45"/>
       <c r="B183" s="25" t="s">
         <v>1916</v>
       </c>
@@ -25531,8 +28673,8 @@
       <c r="BI183" s="1"/>
       <c r="BJ183" s="1"/>
     </row>
-    <row r="184" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
+    <row r="184" spans="1:62">
+      <c r="A184" s="45"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -25595,8 +28737,8 @@
       <c r="BI184" s="1"/>
       <c r="BJ184" s="1"/>
     </row>
-    <row r="185" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
+    <row r="185" spans="1:62">
+      <c r="A185" s="45"/>
       <c r="B185" s="24" t="s">
         <v>1949</v>
       </c>
@@ -25723,8 +28865,8 @@
       <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
     </row>
-    <row r="186" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
+    <row r="186" spans="1:62">
+      <c r="A186" s="45"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -25787,8 +28929,8 @@
       <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
     </row>
-    <row r="187" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
+    <row r="187" spans="1:62">
+      <c r="A187" s="45"/>
       <c r="B187" s="24" t="s">
         <v>1980</v>
       </c>
@@ -25887,8 +29029,8 @@
       <c r="BI187" s="1"/>
       <c r="BJ187" s="1"/>
     </row>
-    <row r="188" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
+    <row r="188" spans="1:62">
+      <c r="A188" s="45"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -25951,8 +29093,8 @@
       <c r="BI188" s="1"/>
       <c r="BJ188" s="1"/>
     </row>
-    <row r="189" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
+    <row r="189" spans="1:62">
+      <c r="A189" s="45"/>
       <c r="B189" s="24" t="s">
         <v>1997</v>
       </c>
@@ -26097,8 +29239,8 @@
       <c r="BI189" s="1"/>
       <c r="BJ189" s="1"/>
     </row>
-    <row r="190" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
+    <row r="190" spans="1:62">
+      <c r="A190" s="45"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -26161,8 +29303,8 @@
       <c r="BI190" s="1"/>
       <c r="BJ190" s="1"/>
     </row>
-    <row r="191" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
+    <row r="191" spans="1:62">
+      <c r="A191" s="45"/>
       <c r="B191" s="24" t="s">
         <v>2037</v>
       </c>
@@ -26269,8 +29411,8 @@
       <c r="BI191" s="1"/>
       <c r="BJ191" s="1"/>
     </row>
-    <row r="192" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
+    <row r="192" spans="1:62">
+      <c r="A192" s="45"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -26333,8 +29475,8 @@
       <c r="BI192" s="1"/>
       <c r="BJ192" s="1"/>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
+    <row r="193" spans="1:62">
+      <c r="A193" s="45"/>
       <c r="B193" s="24" t="s">
         <v>2058</v>
       </c>
@@ -26497,8 +29639,8 @@
       <c r="BI193" s="1"/>
       <c r="BJ193" s="1"/>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
+    <row r="194" spans="1:62">
+      <c r="A194" s="45"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -26561,8 +29703,8 @@
       <c r="BI194" s="1"/>
       <c r="BJ194" s="1"/>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A195" s="39"/>
+    <row r="195" spans="1:62">
+      <c r="A195" s="45"/>
       <c r="B195" s="24" t="s">
         <v>2107</v>
       </c>
@@ -26691,8 +29833,8 @@
       <c r="BI195" s="1"/>
       <c r="BJ195" s="1"/>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A196" s="39"/>
+    <row r="196" spans="1:62">
+      <c r="A196" s="45"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -26755,8 +29897,8 @@
       <c r="BI196" s="1"/>
       <c r="BJ196" s="1"/>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A197" s="39"/>
+    <row r="197" spans="1:62">
+      <c r="A197" s="45"/>
       <c r="B197" s="24" t="s">
         <v>2138</v>
       </c>
@@ -26855,8 +29997,8 @@
       <c r="BI197" s="1"/>
       <c r="BJ197" s="1"/>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A198" s="39"/>
+    <row r="198" spans="1:62">
+      <c r="A198" s="45"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -26919,8 +30061,8 @@
       <c r="BI198" s="1"/>
       <c r="BJ198" s="1"/>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A199" s="39"/>
+    <row r="199" spans="1:62">
+      <c r="A199" s="45"/>
       <c r="B199" s="24" t="s">
         <v>2155</v>
       </c>
@@ -27035,8 +30177,8 @@
       <c r="BI199" s="1"/>
       <c r="BJ199" s="1"/>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A200" s="39"/>
+    <row r="200" spans="1:62">
+      <c r="A200" s="45"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -27099,8 +30241,8 @@
       <c r="BI200" s="1"/>
       <c r="BJ200" s="1"/>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A201" s="39"/>
+    <row r="201" spans="1:62">
+      <c r="A201" s="45"/>
       <c r="B201" s="24" t="s">
         <v>2180</v>
       </c>
@@ -27209,8 +30351,8 @@
       <c r="BI201" s="1"/>
       <c r="BJ201" s="1"/>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A202" s="39"/>
+    <row r="202" spans="1:62">
+      <c r="A202" s="45"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -27273,8 +30415,8 @@
       <c r="BI202" s="1"/>
       <c r="BJ202" s="1"/>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A203" s="39"/>
+    <row r="203" spans="1:62">
+      <c r="A203" s="45"/>
       <c r="B203" s="24" t="s">
         <v>2202</v>
       </c>
@@ -27391,8 +30533,8 @@
       <c r="BI203" s="1"/>
       <c r="BJ203" s="1"/>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
+    <row r="204" spans="1:62">
+      <c r="A204" s="45"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -27455,8 +30597,8 @@
       <c r="BI204" s="1"/>
       <c r="BJ204" s="1"/>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A205" s="39"/>
+    <row r="205" spans="1:62">
+      <c r="A205" s="45"/>
       <c r="B205" s="24" t="s">
         <v>2228</v>
       </c>
@@ -27579,8 +30721,8 @@
       <c r="BI205" s="1"/>
       <c r="BJ205" s="1"/>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A206" s="39"/>
+    <row r="206" spans="1:62">
+      <c r="A206" s="45"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -27643,8 +30785,8 @@
       <c r="BI206" s="1"/>
       <c r="BJ206" s="1"/>
     </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A207" s="39"/>
+    <row r="207" spans="1:62">
+      <c r="A207" s="45"/>
       <c r="B207" s="24" t="s">
         <v>2257</v>
       </c>
@@ -27781,8 +30923,8 @@
       <c r="BI207" s="1"/>
       <c r="BJ207" s="1"/>
     </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
+    <row r="208" spans="1:62">
+      <c r="A208" s="45"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -27845,7 +30987,7 @@
       <c r="BI208" s="1"/>
       <c r="BJ208" s="1"/>
     </row>
-    <row r="209" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:62">
       <c r="B209" s="1" t="s">
         <v>488</v>
       </c>
@@ -27988,8 +31130,8 @@
       <c r="BI209" s="1"/>
       <c r="BJ209" s="1"/>
     </row>
-    <row r="210" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A210" s="39" t="s">
+    <row r="210" spans="1:62">
+      <c r="A210" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B210" s="1"/>
@@ -28054,8 +31196,8 @@
       <c r="BI210" s="1"/>
       <c r="BJ210" s="1"/>
     </row>
-    <row r="211" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A211" s="39"/>
+    <row r="211" spans="1:62">
+      <c r="A211" s="45"/>
       <c r="B211" s="1" t="s">
         <v>585</v>
       </c>
@@ -28132,8 +31274,8 @@
       <c r="BI211" s="1"/>
       <c r="BJ211" s="1"/>
     </row>
-    <row r="212" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A212" s="39"/>
+    <row r="212" spans="1:62">
+      <c r="A212" s="45"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -28196,8 +31338,8 @@
       <c r="BI212" s="1"/>
       <c r="BJ212" s="1"/>
     </row>
-    <row r="213" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A213" s="39"/>
+    <row r="213" spans="1:62">
+      <c r="A213" s="45"/>
       <c r="B213" s="24" t="s">
         <v>2293</v>
       </c>
@@ -28324,8 +31466,8 @@
       <c r="BI213" s="1"/>
       <c r="BJ213" s="1"/>
     </row>
-    <row r="214" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A214" s="39"/>
+    <row r="214" spans="1:62">
+      <c r="A214" s="45"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -28388,8 +31530,8 @@
       <c r="BI214" s="1"/>
       <c r="BJ214" s="1"/>
     </row>
-    <row r="215" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A215" s="39"/>
+    <row r="215" spans="1:62">
+      <c r="A215" s="45"/>
       <c r="B215" s="24" t="s">
         <v>2324</v>
       </c>
@@ -28500,8 +31642,8 @@
       <c r="BI215" s="1"/>
       <c r="BJ215" s="1"/>
     </row>
-    <row r="216" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A216" s="39"/>
+    <row r="216" spans="1:62">
+      <c r="A216" s="45"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -28564,8 +31706,8 @@
       <c r="BI216" s="1"/>
       <c r="BJ216" s="1"/>
     </row>
-    <row r="217" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A217" s="39"/>
+    <row r="217" spans="1:62">
+      <c r="A217" s="45"/>
       <c r="B217" s="26" t="s">
         <v>314</v>
       </c>
@@ -28658,8 +31800,8 @@
       <c r="BI217" s="1"/>
       <c r="BJ217" s="1"/>
     </row>
-    <row r="218" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A218" s="39"/>
+    <row r="218" spans="1:62">
+      <c r="A218" s="45"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -28722,8 +31864,8 @@
       <c r="BI218" s="1"/>
       <c r="BJ218" s="1"/>
     </row>
-    <row r="219" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A219" s="39"/>
+    <row r="219" spans="1:62">
+      <c r="A219" s="45"/>
       <c r="B219" s="24" t="s">
         <v>2361</v>
       </c>
@@ -28816,8 +31958,8 @@
       <c r="BI219" s="1"/>
       <c r="BJ219" s="1"/>
     </row>
-    <row r="220" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A220" s="39"/>
+    <row r="220" spans="1:62">
+      <c r="A220" s="45"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -28880,8 +32022,8 @@
       <c r="BI220" s="1"/>
       <c r="BJ220" s="1"/>
     </row>
-    <row r="221" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A221" s="39"/>
+    <row r="221" spans="1:62">
+      <c r="A221" s="45"/>
       <c r="B221" s="24" t="s">
         <v>2373</v>
       </c>
@@ -28966,8 +32108,8 @@
       <c r="BI221" s="1"/>
       <c r="BJ221" s="1"/>
     </row>
-    <row r="222" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A222" s="39"/>
+    <row r="222" spans="1:62">
+      <c r="A222" s="45"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -29030,8 +32172,8 @@
       <c r="BI222" s="1"/>
       <c r="BJ222" s="1"/>
     </row>
-    <row r="223" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A223" s="39"/>
+    <row r="223" spans="1:62">
+      <c r="A223" s="45"/>
       <c r="B223" s="24" t="s">
         <v>2383</v>
       </c>
@@ -29126,8 +32268,8 @@
       <c r="BI223" s="1"/>
       <c r="BJ223" s="1"/>
     </row>
-    <row r="224" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A224" s="39"/>
+    <row r="224" spans="1:62">
+      <c r="A224" s="45"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -29190,8 +32332,8 @@
       <c r="BI224" s="1"/>
       <c r="BJ224" s="1"/>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A225" s="39"/>
+    <row r="225" spans="1:62">
+      <c r="A225" s="45"/>
       <c r="B225" s="24" t="s">
         <v>2398</v>
       </c>
@@ -29282,8 +32424,8 @@
       <c r="BI225" s="1"/>
       <c r="BJ225" s="1"/>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A226" s="39"/>
+    <row r="226" spans="1:62">
+      <c r="A226" s="45"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -29346,8 +32488,8 @@
       <c r="BI226" s="1"/>
       <c r="BJ226" s="1"/>
     </row>
-    <row r="227" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A227" s="39"/>
+    <row r="227" spans="1:62">
+      <c r="A227" s="45"/>
       <c r="B227" s="24" t="s">
         <v>2411</v>
       </c>
@@ -29438,8 +32580,8 @@
       <c r="BI227" s="1"/>
       <c r="BJ227" s="1"/>
     </row>
-    <row r="228" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A228" s="39"/>
+    <row r="228" spans="1:62">
+      <c r="A228" s="45"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -29502,8 +32644,8 @@
       <c r="BI228" s="1"/>
       <c r="BJ228" s="1"/>
     </row>
-    <row r="229" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A229" s="39"/>
+    <row r="229" spans="1:62">
+      <c r="A229" s="45"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -29566,8 +32708,8 @@
       <c r="BI229" s="1"/>
       <c r="BJ229" s="1"/>
     </row>
-    <row r="230" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A230" s="39"/>
+    <row r="230" spans="1:62">
+      <c r="A230" s="45"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -29630,8 +32772,8 @@
       <c r="BI230" s="1"/>
       <c r="BJ230" s="1"/>
     </row>
-    <row r="231" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A231" s="39"/>
+    <row r="231" spans="1:62">
+      <c r="A231" s="45"/>
       <c r="B231" s="24" t="s">
         <v>2424</v>
       </c>
@@ -29748,8 +32890,8 @@
       <c r="BI231" s="1"/>
       <c r="BJ231" s="1"/>
     </row>
-    <row r="232" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A232" s="39"/>
+    <row r="232" spans="1:62">
+      <c r="A232" s="45"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -29812,8 +32954,8 @@
       <c r="BI232" s="1"/>
       <c r="BJ232" s="1"/>
     </row>
-    <row r="233" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A233" s="39"/>
+    <row r="233" spans="1:62">
+      <c r="A233" s="45"/>
       <c r="B233" s="24" t="s">
         <v>2450</v>
       </c>
@@ -29902,8 +33044,8 @@
       <c r="BI233" s="1"/>
       <c r="BJ233" s="1"/>
     </row>
-    <row r="234" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A234" s="39"/>
+    <row r="234" spans="1:62">
+      <c r="A234" s="45"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -29966,8 +33108,8 @@
       <c r="BI234" s="1"/>
       <c r="BJ234" s="1"/>
     </row>
-    <row r="235" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A235" s="39"/>
+    <row r="235" spans="1:62">
+      <c r="A235" s="45"/>
       <c r="B235" s="24" t="s">
         <v>2462</v>
       </c>
@@ -30118,8 +33260,8 @@
       <c r="BI235" s="1"/>
       <c r="BJ235" s="1"/>
     </row>
-    <row r="236" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A236" s="39"/>
+    <row r="236" spans="1:62">
+      <c r="A236" s="45"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -30182,8 +33324,8 @@
       <c r="BI236" s="1"/>
       <c r="BJ236" s="1"/>
     </row>
-    <row r="237" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A237" s="39"/>
+    <row r="237" spans="1:62">
+      <c r="A237" s="45"/>
       <c r="B237" s="24" t="s">
         <v>2504</v>
       </c>
@@ -30286,8 +33428,8 @@
       <c r="BI237" s="1"/>
       <c r="BJ237" s="1"/>
     </row>
-    <row r="238" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A238" s="39"/>
+    <row r="238" spans="1:62">
+      <c r="A238" s="45"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -30350,8 +33492,8 @@
       <c r="BI238" s="1"/>
       <c r="BJ238" s="1"/>
     </row>
-    <row r="239" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A239" s="39"/>
+    <row r="239" spans="1:62">
+      <c r="A239" s="45"/>
       <c r="B239" s="24" t="s">
         <v>2523</v>
       </c>
@@ -30434,8 +33576,8 @@
       <c r="BI239" s="1"/>
       <c r="BJ239" s="1"/>
     </row>
-    <row r="240" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A240" s="39"/>
+    <row r="240" spans="1:62">
+      <c r="A240" s="45"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -30498,8 +33640,8 @@
       <c r="BI240" s="1"/>
       <c r="BJ240" s="1"/>
     </row>
-    <row r="241" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A241" s="39"/>
+    <row r="241" spans="1:62">
+      <c r="A241" s="45"/>
       <c r="B241" s="24" t="s">
         <v>2530</v>
       </c>
@@ -30596,8 +33738,8 @@
       <c r="BI241" s="1"/>
       <c r="BJ241" s="1"/>
     </row>
-    <row r="242" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A242" s="39"/>
+    <row r="242" spans="1:62">
+      <c r="A242" s="45"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -30660,8 +33802,8 @@
       <c r="BI242" s="1"/>
       <c r="BJ242" s="1"/>
     </row>
-    <row r="243" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A243" s="39"/>
+    <row r="243" spans="1:62">
+      <c r="A243" s="45"/>
       <c r="B243" s="24" t="s">
         <v>2546</v>
       </c>
@@ -30760,8 +33902,8 @@
       <c r="BI243" s="1"/>
       <c r="BJ243" s="1"/>
     </row>
-    <row r="244" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A244" s="39"/>
+    <row r="244" spans="1:62">
+      <c r="A244" s="45"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -30824,8 +33966,8 @@
       <c r="BI244" s="1"/>
       <c r="BJ244" s="1"/>
     </row>
-    <row r="245" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A245" s="39"/>
+    <row r="245" spans="1:62">
+      <c r="A245" s="45"/>
       <c r="B245" s="24" t="s">
         <v>2563</v>
       </c>
@@ -30918,8 +34060,8 @@
       <c r="BI245" s="1"/>
       <c r="BJ245" s="1"/>
     </row>
-    <row r="246" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A246" s="39"/>
+    <row r="246" spans="1:62">
+      <c r="A246" s="45"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -30982,8 +34124,8 @@
       <c r="BI246" s="1"/>
       <c r="BJ246" s="1"/>
     </row>
-    <row r="247" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A247" s="39"/>
+    <row r="247" spans="1:62">
+      <c r="A247" s="45"/>
       <c r="B247" s="24" t="s">
         <v>170</v>
       </c>
@@ -31060,8 +34202,8 @@
       <c r="BI247" s="1"/>
       <c r="BJ247" s="1"/>
     </row>
-    <row r="248" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A248" s="39"/>
+    <row r="248" spans="1:62">
+      <c r="A248" s="45"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -31124,8 +34266,8 @@
       <c r="BI248" s="1"/>
       <c r="BJ248" s="1"/>
     </row>
-    <row r="249" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A249" s="39"/>
+    <row r="249" spans="1:62">
+      <c r="A249" s="45"/>
       <c r="B249" s="24" t="s">
         <v>2582</v>
       </c>
@@ -31258,8 +34400,8 @@
       <c r="BI249" s="1"/>
       <c r="BJ249" s="1"/>
     </row>
-    <row r="250" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A250" s="39"/>
+    <row r="250" spans="1:62">
+      <c r="A250" s="45"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -31322,7 +34464,7 @@
       <c r="BI250" s="1"/>
       <c r="BJ250" s="1"/>
     </row>
-    <row r="251" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:62">
       <c r="B251" s="1" t="s">
         <v>488</v>
       </c>
@@ -31465,7 +34607,7 @@
       <c r="BI251" s="1"/>
       <c r="BJ251" s="1"/>
     </row>
-    <row r="252" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:62">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -31528,7 +34670,7 @@
       <c r="BI252" s="1"/>
       <c r="BJ252" s="1"/>
     </row>
-    <row r="253" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:62">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -31591,7 +34733,7 @@
       <c r="BI253" s="1"/>
       <c r="BJ253" s="1"/>
     </row>
-    <row r="254" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:62">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -31654,7 +34796,7 @@
       <c r="BI254" s="1"/>
       <c r="BJ254" s="1"/>
     </row>
-    <row r="255" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:62">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -31717,7 +34859,7 @@
       <c r="BI255" s="1"/>
       <c r="BJ255" s="1"/>
     </row>
-    <row r="256" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:62">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -31798,49 +34940,1199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
+      <c r="A1" s="38"/>
+      <c r="B1" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="4"/>
+      <c r="B2" s="11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>2720</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>2798</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="11" t="s">
+        <v>2800</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>2617</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>2801</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>2802</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="38" t="s">
+        <v>2697</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>2803</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>2705</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>2804</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>2805</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>2806</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="11" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="40" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="40" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="11" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="40" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="40" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="40" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="11" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="40" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="40" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="40" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="40" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="40" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="11" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="11" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="40" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="11" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="40" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="11" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="40" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="40" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33" s="38"/>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>2697</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AK33" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+    </row>
+    <row r="34" spans="1:49" ht="409.5" customHeight="1">
+      <c r="A34" s="33" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>2740</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>2741</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>2742</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>2743</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>2745</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>2747</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>2748</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>2749</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>2750</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>2751</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>2752</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>2753</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>2754</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>2755</v>
+      </c>
+      <c r="U34" s="36" t="s">
+        <v>2756</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>2757</v>
+      </c>
+      <c r="W34" s="36" t="s">
+        <v>2758</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>2759</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Z34" s="36" t="s">
+        <v>2761</v>
+      </c>
+      <c r="AA34" s="36" t="s">
+        <v>2762</v>
+      </c>
+      <c r="AB34" s="36" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AC34" s="36" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AD34" s="36" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AE34" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AF34" s="36" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AG34" s="36" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AH34" s="36" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AI34" s="36" t="s">
+        <v>2770</v>
+      </c>
+      <c r="AJ34" s="36" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AK34" s="36" t="s">
+        <v>2736</v>
+      </c>
+      <c r="AL34" s="36" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+    </row>
+    <row r="35" spans="1:49">
+      <c r="H35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="AK35" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>2633</v>
@@ -31908,7 +36200,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
         <v>2712</v>
       </c>
@@ -31940,7 +36232,7 @@
       </c>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="40" t="s">
         <v>102</v>
       </c>
@@ -31970,7 +36262,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="40" t="s">
         <v>2632</v>
       </c>
@@ -32000,7 +36292,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
         <v>2651</v>
       </c>
@@ -32032,7 +36324,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="40" t="s">
         <v>2656</v>
       </c>
@@ -32062,7 +36354,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="40" t="s">
         <v>2659</v>
       </c>
@@ -32092,7 +36384,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="40" t="s">
         <v>2680</v>
       </c>
@@ -32122,7 +36414,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
         <v>2708</v>
       </c>
@@ -32154,7 +36446,7 @@
       <c r="W10" s="14"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="40" t="s">
         <v>2643</v>
       </c>
@@ -32184,7 +36476,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="40" t="s">
         <v>2684</v>
       </c>
@@ -32203,7 +36495,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="9" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="7" t="s">
@@ -32216,7 +36508,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="40" t="s">
         <v>110</v>
       </c>
@@ -32246,7 +36538,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="40" t="s">
         <v>87</v>
       </c>
@@ -32276,7 +36568,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="40" t="s">
         <v>2638</v>
       </c>
@@ -32306,7 +36598,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="41" t="s">
         <v>15</v>
       </c>
@@ -32336,7 +36628,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17" s="40" t="s">
         <v>2662</v>
       </c>
@@ -32366,7 +36658,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32">
       <c r="A18" s="11" t="s">
         <v>2726</v>
       </c>
@@ -32398,9 +36690,9 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="A19" s="11" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -32428,7 +36720,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="A20" s="41" t="s">
         <v>2627</v>
       </c>
@@ -32458,7 +36750,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32">
       <c r="A21" s="11" t="s">
         <v>2722</v>
       </c>
@@ -32490,7 +36782,7 @@
       <c r="W21" s="14"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32">
       <c r="A22" s="40" t="s">
         <v>2718</v>
       </c>
@@ -32522,7 +36814,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32">
       <c r="A23" s="11" t="s">
         <v>2681</v>
       </c>
@@ -32552,7 +36844,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32">
       <c r="A24" s="40" t="s">
         <v>106</v>
       </c>
@@ -32583,7 +36875,7 @@
       <c r="X24" s="4"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32">
       <c r="A25" s="40" t="s">
         <v>141</v>
       </c>
@@ -32613,7 +36905,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32">
       <c r="A26" s="41" t="s">
         <v>2630</v>
       </c>
@@ -32643,7 +36935,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32">
       <c r="A27" s="40" t="s">
         <v>2647</v>
       </c>
@@ -32673,7 +36965,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32">
       <c r="A28" s="40" t="s">
         <v>2670</v>
       </c>
@@ -32703,7 +36995,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32">
       <c r="A29" s="40" t="s">
         <v>2642</v>
       </c>
@@ -32733,17 +37025,17 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32">
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32">
       <c r="AD31" s="31"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49">
       <c r="A33" s="32"/>
       <c r="B33" s="5" t="s">
         <v>4</v>
@@ -32851,7 +37143,7 @@
         <v>2728</v>
       </c>
       <c r="AK33" s="38" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AL33" s="38"/>
       <c r="AM33" s="38"/>
@@ -32866,7 +37158,7 @@
       <c r="AV33" s="38"/>
       <c r="AW33" s="38"/>
     </row>
-    <row r="34" spans="1:49" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" ht="409.5" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>2616</v>
       </c>
@@ -32973,10 +37265,10 @@
         <v>2727</v>
       </c>
       <c r="AJ34" s="33" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AK34" s="33" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AL34" s="38"/>
       <c r="AM34" s="38"/>
@@ -32991,11 +37283,11 @@
       <c r="AV34" s="38"/>
       <c r="AW34" s="38"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49">
       <c r="H35" s="32"/>
       <c r="T35" s="32"/>
       <c r="AJ35" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
   </sheetData>
@@ -33010,128 +37302,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+    <row r="1" spans="1:24">
+      <c r="A1" s="39"/>
+      <c r="B1" s="45" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="L1" s="45" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
+      <c r="R1" s="45" t="s">
+        <v>2840</v>
+      </c>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>2633</v>
+        <v>2811</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2716</v>
+        <v>2729</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>2663</v>
+        <v>2843</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>2817</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>158</v>
+        <v>2842</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>113</v>
+        <v>2724</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>127</v>
+        <v>2841</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>2652</v>
+        <v>2798</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>149</v>
+        <v>2820</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="11" t="s">
         <v>2640</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>2693</v>
+        <v>69</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>100</v>
+        <v>2860</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>2703</v>
+        <v>2801</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>2738</v>
+        <v>2821</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="38" t="s">
-        <v>2699</v>
-      </c>
-      <c r="S2" s="38" t="s">
-        <v>2654</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>2709</v>
-      </c>
-      <c r="U2" s="38" t="s">
-        <v>2682</v>
-      </c>
-      <c r="V2" s="38" t="s">
+      <c r="R2" s="39" t="s">
+        <v>2697</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>2803</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>2705</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>2804</v>
+      </c>
+      <c r="V2" s="39" t="s">
         <v>2650</v>
       </c>
-      <c r="W2" s="38" t="s">
-        <v>2713</v>
-      </c>
-      <c r="X2" s="38" t="s">
+      <c r="W2" s="39" t="s">
+        <v>2806</v>
+      </c>
+      <c r="X2" s="39" t="s">
         <v>2675</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>2712</v>
+        <v>2772</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>2696</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -33149,19 +37442,17 @@
       <c r="T3" s="22"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="7" t="s">
-        <v>2711</v>
-      </c>
+      <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="40" t="s">
-        <v>102</v>
+        <v>2818</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -33169,7 +37460,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
-        <v>2665</v>
+        <v>297</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -33184,23 +37475,23 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="40" t="s">
         <v>2632</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>2631</v>
-      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9" t="s">
+        <v>2813</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -33214,16 +37505,14 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
-        <v>2651</v>
+        <v>2775</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
-        <v>2661</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -33233,9 +37522,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="9" t="s">
-        <v>2702</v>
-      </c>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="14"/>
@@ -33246,37 +37533,37 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:24">
+      <c r="A7" s="41" t="s">
         <v>2656</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="40" t="s">
         <v>2659</v>
       </c>
@@ -33285,7 +37572,7 @@
       <c r="D8" s="9" t="s">
         <v>2658</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -33306,27 +37593,23 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="40" t="s">
-        <v>2740</v>
+        <v>2778</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="9" t="s">
-        <v>2689</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="3"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="9" t="s">
-        <v>2739</v>
-      </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
@@ -33338,20 +37621,18 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
-        <v>2708</v>
+        <v>2779</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="9" t="s">
-        <v>2686</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="3"/>
       <c r="L10" s="11"/>
@@ -33362,22 +37643,20 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="17" t="s">
-        <v>2707</v>
-      </c>
+      <c r="T10" s="44"/>
       <c r="U10" s="20"/>
       <c r="V10" s="4"/>
       <c r="W10" s="14"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="40" t="s">
         <v>2643</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -33386,11 +37665,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="9" t="s">
-        <v>2672</v>
-      </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="9" t="s">
+        <v>2866</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -33400,14 +37679,14 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="40" t="s">
-        <v>2684</v>
+        <v>2781</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -33420,9 +37699,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="7" t="s">
-        <v>2683</v>
-      </c>
+      <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -33430,14 +37707,14 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="40" t="s">
-        <v>110</v>
+        <v>2815</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="9" t="s">
         <v>2636</v>
       </c>
@@ -33460,14 +37737,14 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="40" t="s">
-        <v>87</v>
+        <v>2810</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -33490,14 +37767,14 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="40" t="s">
         <v>2638</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -33520,44 +37797,44 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+        <v>2822</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="9" t="s">
         <v>2618</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17" s="40" t="s">
         <v>2662</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -33566,11 +37843,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="9" t="s">
-        <v>2637</v>
-      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="40"/>
+      <c r="P17" s="42" t="s">
+        <v>2847</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -33580,18 +37857,16 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32">
       <c r="A18" s="11" t="s">
-        <v>2726</v>
+        <v>2786</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="9" t="s">
-        <v>2725</v>
-      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -33608,18 +37883,16 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="7" t="s">
-        <v>2645</v>
-      </c>
+      <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="A19" s="11" t="s">
-        <v>2729</v>
+        <v>2787</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -33630,69 +37903,62 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="9" t="s">
-        <v>2737</v>
-      </c>
+      <c r="P19" s="11"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="42" t="s">
-        <v>2690</v>
-      </c>
+      <c r="U19" s="40"/>
       <c r="V19" s="14"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="A20" s="41" t="s">
         <v>2627</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>2626</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32">
       <c r="A21" s="11" t="s">
-        <v>2722</v>
+        <v>2870</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="9" t="s">
-        <v>2721</v>
-      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="3"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="9" t="s">
-        <v>2692</v>
-      </c>
+      <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -33703,18 +37969,18 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="14"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="7" t="s">
+        <v>2869</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32">
       <c r="A22" s="40" t="s">
-        <v>2718</v>
+        <v>2872</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
-        <v>2717</v>
-      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -33728,23 +37994,24 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9" t="s">
-        <v>2653</v>
-      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="4"/>
+      <c r="V22" s="9" t="s">
+        <v>2873</v>
+      </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32">
       <c r="A23" s="11" t="s">
-        <v>2681</v>
+        <v>2846</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>2845</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -33757,31 +38024,27 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="9" t="s">
-        <v>2698</v>
-      </c>
+      <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="V23" s="9" t="s">
-        <v>2649</v>
-      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="11"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32">
       <c r="A24" s="40" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="9" t="s">
-        <v>2655</v>
-      </c>
+      <c r="J24" s="11"/>
       <c r="K24" s="3"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -33798,14 +38061,14 @@
       <c r="X24" s="4"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32">
       <c r="A25" s="40" t="s">
-        <v>141</v>
+        <v>2819</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -33828,7 +38091,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32">
       <c r="A26" s="41" t="s">
         <v>2630</v>
       </c>
@@ -33858,14 +38121,14 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32">
       <c r="A27" s="40" t="s">
-        <v>2647</v>
+        <v>0</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -33876,9 +38139,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="9" t="s">
-        <v>2677</v>
-      </c>
+      <c r="P27" s="11"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -33888,14 +38149,14 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32">
       <c r="A28" s="40" t="s">
         <v>2670</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -33904,11 +38165,11 @@
       <c r="K28" s="3"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="N28" s="9" t="s">
+        <v>2859</v>
+      </c>
       <c r="O28" s="11"/>
-      <c r="P28" s="42" t="s">
-        <v>2668</v>
-      </c>
+      <c r="P28" s="40"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -33918,23 +38179,23 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32">
       <c r="A29" s="40" t="s">
-        <v>2642</v>
+        <v>2862</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="9" t="s">
-        <v>2671</v>
-      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -33948,273 +38209,273 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32">
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32">
       <c r="AD31" s="31"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:49">
+      <c r="A33" s="39"/>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>2822</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>3</v>
+        <v>2823</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>2824</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R33" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="S33" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="T33" s="38" t="s">
+        <v>2827</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2830</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>2851</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>2852</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="U33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U33" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="V33" s="38" t="s">
+      <c r="V33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="38" t="s">
+      <c r="W33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="X33" s="38" t="s">
+      <c r="X33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y33" s="38" t="s">
+      <c r="Y33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z33" s="38" t="s">
+      <c r="Z33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA33" s="38" t="s">
+      <c r="AA33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AB33" s="38" t="s">
+      <c r="AB33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AC33" s="38" t="s">
+      <c r="AC33" s="4" t="s">
         <v>2697</v>
       </c>
-      <c r="AD33" s="38" t="s">
+      <c r="AD33" s="4" t="s">
         <v>2701</v>
       </c>
-      <c r="AE33" s="38" t="s">
+      <c r="AE33" s="4" t="s">
         <v>2705</v>
       </c>
-      <c r="AF33" s="38" t="s">
+      <c r="AF33" s="4" t="s">
         <v>2710</v>
       </c>
-      <c r="AG33" s="38" t="s">
+      <c r="AG33" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="AH33" s="38" t="s">
+      <c r="AH33" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="AI33" s="38" t="s">
+      <c r="AI33" s="4" t="s">
         <v>2724</v>
       </c>
-      <c r="AJ33" s="38" t="s">
+      <c r="AJ33" s="4" t="s">
         <v>2728</v>
       </c>
-      <c r="AK33" s="38" t="s">
-        <v>2730</v>
-      </c>
-      <c r="AL33" s="38" t="s">
+      <c r="AK33" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AL33" s="4" t="s">
         <v>2617</v>
       </c>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="39"/>
+      <c r="AU33" s="39"/>
+      <c r="AV33" s="39"/>
+      <c r="AW33" s="39"/>
     </row>
-    <row r="34" spans="1:49" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" ht="409.5" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>2616</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>27</v>
+        <v>2808</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>2619</v>
+        <v>2809</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>2621</v>
+        <v>2855</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>2624</v>
+        <v>2856</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>2625</v>
+        <v>2857</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>2628</v>
+        <v>2858</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>2634</v>
+        <v>2812</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>2635</v>
+        <v>2814</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>2657</v>
+        <v>2816</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>2660</v>
+        <v>2844</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>2664</v>
+        <v>2848</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>2639</v>
+        <v>2850</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>2666</v>
+        <v>2854</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>2669</v>
+        <v>2861</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>2673</v>
+        <v>2863</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>2674</v>
+        <v>2867</v>
       </c>
       <c r="R34" s="36" t="s">
-        <v>2644</v>
+        <v>2868</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>2676</v>
+        <v>2874</v>
       </c>
       <c r="T34" s="36" t="s">
-        <v>2678</v>
+        <v>2833</v>
       </c>
       <c r="U34" s="36" t="s">
-        <v>2648</v>
+        <v>2834</v>
       </c>
       <c r="V34" s="36" t="s">
-        <v>2687</v>
+        <v>2835</v>
       </c>
       <c r="W34" s="36" t="s">
-        <v>2679</v>
+        <v>2836</v>
       </c>
       <c r="X34" s="36" t="s">
-        <v>2688</v>
+        <v>2759</v>
       </c>
       <c r="Y34" s="36" t="s">
-        <v>2691</v>
+        <v>2760</v>
       </c>
       <c r="Z34" s="36" t="s">
-        <v>2685</v>
+        <v>2761</v>
       </c>
       <c r="AA34" s="36" t="s">
-        <v>2694</v>
+        <v>2762</v>
       </c>
       <c r="AB34" s="36" t="s">
-        <v>2695</v>
-      </c>
-      <c r="AC34" s="35" t="s">
-        <v>2700</v>
-      </c>
-      <c r="AD34" s="35" t="s">
-        <v>2704</v>
-      </c>
-      <c r="AE34" s="35" t="s">
-        <v>2706</v>
-      </c>
-      <c r="AF34" s="35" t="s">
-        <v>2714</v>
-      </c>
-      <c r="AG34" s="33" t="s">
-        <v>2719</v>
-      </c>
-      <c r="AH34" s="33" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI34" s="33" t="s">
-        <v>2727</v>
-      </c>
-      <c r="AJ34" s="33" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AC34" s="36" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AD34" s="36" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AE34" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AF34" s="36" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AG34" s="36" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AH34" s="36" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AI34" s="36" t="s">
+        <v>2770</v>
+      </c>
+      <c r="AJ34" s="36" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AK34" s="36" t="s">
         <v>2736</v>
       </c>
-      <c r="AK34" s="33" t="s">
-        <v>2731</v>
-      </c>
-      <c r="AL34" s="33" t="s">
-        <v>2742</v>
-      </c>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
-      <c r="AW34" s="38"/>
+      <c r="AL34" s="36" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="39"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="H35" s="38"/>
-      <c r="T35" s="38"/>
+    <row r="35" spans="1:49">
+      <c r="H35" s="39"/>
+      <c r="T35" s="39"/>
       <c r="AK35" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
     </row>
   </sheetData>
@@ -34229,15 +38490,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="4"/>
       <c r="B1" s="14" t="s">
         <v>124</v>
@@ -34305,7 +38567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -34343,7 +38605,7 @@
       </c>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
@@ -34373,7 +38635,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
@@ -34405,7 +38667,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="14" t="s">
         <v>104</v>
       </c>
@@ -34441,7 +38703,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="5" t="s">
         <v>111</v>
       </c>
@@ -34471,7 +38733,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -34503,7 +38765,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -34535,7 +38797,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="14" t="s">
         <v>155</v>
       </c>
@@ -34571,7 +38833,7 @@
       </c>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -34601,7 +38863,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -34633,7 +38895,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="5" t="s">
         <v>110</v>
       </c>
@@ -34663,7 +38925,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
@@ -34693,7 +38955,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -34725,7 +38987,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -34755,7 +39017,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
@@ -34785,7 +39047,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="14" t="s">
         <v>137</v>
       </c>
@@ -34821,7 +39083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="14" t="s">
         <v>94</v>
       </c>
@@ -34857,7 +39119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -34887,7 +39149,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="14" t="s">
         <v>91</v>
       </c>
@@ -34923,7 +39185,7 @@
       </c>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -34957,7 +39219,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="14" t="s">
         <v>117</v>
       </c>
@@ -34993,7 +39255,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
@@ -35023,7 +39285,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="5" t="s">
         <v>141</v>
       </c>
@@ -35053,7 +39315,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -35083,7 +39345,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -35113,7 +39375,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
@@ -35143,7 +39405,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -35181,15 +39443,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>178</v>
@@ -35249,7 +39512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>197</v>
       </c>
@@ -35311,7 +39574,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>217</v>
       </c>
@@ -35373,7 +39636,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>237</v>
       </c>
@@ -35435,7 +39698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>257</v>
       </c>
@@ -35497,7 +39760,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>264</v>
       </c>
@@ -35559,7 +39822,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>269</v>
       </c>

--- a/output/basis_character_ver4.xlsx
+++ b/output/basis_character_ver4.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="all_char_list" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="2919">
   <si>
     <t>ㅌ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15236,10 +15235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅏ(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -15504,130 +15499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갖
-겆
-곶
-궂
-깆
-꽂
-꿎
-낮
-늦
-닺
-딪
-랒
-릊
-맞
-맺
-멎
-벚
-빚
-엊
-읒
-잊
-잦
-젖
-좆
-짖
-찢
-찾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같
-겉
-곁
-깥
-꼍
-끝
-낱
-돝
-릍
-맡
-뭍
-밑
-밭
-뱉
-볕
-붙
-샅
-솥
-숱
-앝
-얕
-옅
-읕
-짙
-팥
-홑
-흩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곈
-곌
-곕
-곗
-녠
-뎬
-롄
-롑
-롓
-볜
-셴
-셸
-솅
-쏀
-옌
-옐
-옘
-옙
-옛
-옜
-쳰
-촁
-톈
-폘
-폡
-폣
-혠
-혤
-혭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜
-괠
-괩
-괬
-괭
-꽥
-꽹
-됐
-뢨
-뵀
-쇈
-쇌
-쇔
-쇗
-쇘
-쐤
-왝
-왠
-왬
-왯
-왱
-좼
-좽
-쬈
-쾡
-홱
-홴
-횃
-횅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15733,10 +15604,6 @@
   </si>
   <si>
     <t>섕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -16184,10 +16051,6 @@
   </si>
   <si>
     <t>숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅜ(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -16747,15 +16610,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅅ(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅞ(25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅆ(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -16836,6 +16691,2691 @@
   </si>
   <si>
     <t>ㅈ(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌ(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅖ(29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갖
+겆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>곶
+궂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>깆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+꽂
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>꿎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+늦
+닺
+딪
+랒
+릊
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맞
+맺
+멎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+벚
+빚
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엊
+읒
+잊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+잦
+젖
+좆
+짖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>같
+겉
+곁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+깥
+꼍
+끝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>돝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+릍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맡
+뭍
+밑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+밭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뱉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+볕
+붙
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>솥
+숱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앝
+얕
+옅
+읕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+짙
+팥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홑
+흩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>곈
+곌
+곕
+곗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>녠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뎬
+롄
+롑
+롓
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>볜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>셴
+셸
+솅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쏀
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옌
+옐
+옘
+옙
+옛
+옜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쳰
+촁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+톈
+폘
+폡
+폣
+혠
+혤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ(29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">괜
+괠
+괩
+괬
+괭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>꽥
+꽹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+됐
+뢨
+뵀
+쇈
+쇌
+쇔
+쇗
+쇘
+쐤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왝
+왠
+왬
+왯
+왱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좼
+좽
+쬈
+쾡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+홴
+횃
+횅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ(39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갇
+걷
+겯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>곧
+굳
+귿
+긷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+눋
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>닫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+덛
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>돋
+듣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+딛
+뜯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맏
+묻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>믿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>받
+벋
+벧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>붇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뻗
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삳
+섣
+숟
+싣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쏟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+잗
+짇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>칟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+컫
+튿
+푿
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">궉
+권
+궐
+궜
+궝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>꿜
+꿨
+꿩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+눴
+뒀
+뤘
+뭔
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뭘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뭡
+뭣
+붤
+붰
+쉈
+쒔
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>웍
+원
+월
+웜
+웝
+웠
+웡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+줬
+쭸
+쭹
+췄
+퀀
+퀄
+퀑
+퉜
+풩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>훤
+훨
+훰
+훵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄻ(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅛ(48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갊
+걺
+곪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>괆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>굶
+긺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+깖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>끎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낢
+넒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+놂
+늚
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>닒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+닮
+덞
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>돎
+듦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>떪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맒
+멂
+몲
+묾
+밂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>밞
+벎
+붊
+빎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+빪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삶
+섦
+솖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+썲
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쏢
+쓺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앎
+얾
+엶
+옮
+욺
+읾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+잚
+젊
+졺
+줆
+짊
+턺
+틂
+팖
+풂
+헒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>굔
+굘
+굡
+굣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뇩
+뇬
+뇰
+뇹
+뇻
+뇽
+룐
+룔
+룝
+룟
+룡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>묜
+묠
+묩
+묫
+뵨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뿅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쇽
+숀
+숄
+숌
+숍
+숏
+숑
+욕
+욘
+욜
+욤
+욥
+욧
+용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+죡
+죤
+죵
+쭁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>춈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+푠
+푤
+푭
+푯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>횬
+횰
+횹
+횻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갹
+갼
+걀
+걋
+걍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+꺅
+꺌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>냑
+냔
+냘
+냠
+냥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+략
+랸
+럇
+량
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>먁
+먈
+먕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뱍
+뱐
+뱝
+뺙
+뺨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샥
+샨
+샬
+샴
+샵
+샷
+샹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+썅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>약
+얀
+얄
+얇
+얌
+얍
+얏
+양
+얕
+얗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쟉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쟌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쟎
+쟐
+쟘
+쟝
+쨘
+쨩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챤
+챦
+챨
+챰
+챵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+캭
+컁
+턍
+퍅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>향</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">곽
+관
+괄
+괆
+괌
+괍
+괏
+광
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>꽉
+꽐
+꽜
+꽝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+놘
+놜
+놨
+돤
+돨
+똴
+롼
+뢍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뫈
+뫘
+뫙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+봔
+봤
+솩
+솬
+솰
+솽
+쏵
+쏸
+쐈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왁
+완
+왈
+왐
+왑
+왓
+왔
+왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좍
+좔
+좝
+좟
+좡
+쫙
+쫠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쫬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+촨
+촬
+촹
+콱
+콴
+콸
+쾀
+쾅
+퇀
+퐝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확
+환
+활
+홧
+황</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ(63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠ(67)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅚ(82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퓻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뵉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>균
+귤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뉵
+뉼
+늄
+늅
+늉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>듄
+듈
+듐
+듕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+륙
+륜
+률
+륨
+륩
+륫
+륭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뮨
+뮬
+뮴
+뮷
+뷴
+뷸
+븀
+븃
+븅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쁑
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>슉
+슐
+슘
+슛
+슝
+쓩
+육
+윤
+율
+윰
+윱
+윳
+융
+윷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+쥰
+쥴
+쥼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>츈
+츌
+츔
+츙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+큔
+큘
+큠
+튠
+튤
+튬
+튱
+퓬
+퓰
+퓸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>퓻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+퓽
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>휵
+휸
+휼
+흄
+흇
+흉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쐽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅚ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ(87)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ(106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅕ(113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">괵
+괸
+괼
+굄
+굅
+굇
+굉
+꾄
+꾈
+꾐
+꾑
+꾕
+뇐
+뇔
+뇜
+뇝
+뇟
+된
+될
+됨
+됩
+됫
+뙨
+뢴
+뢸
+룀
+룁
+룃
+룅
+묀
+묄
+묍
+묏
+묑
+뵉
+뵌
+뵐
+뵘
+뵙
+쇤
+쇨
+쇰
+쇱
+쇳
+쐰
+쐴
+쐼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쐽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+왹
+왼
+욀
+욈
+욉
+욋
+욍
+죈
+죌
+죔
+죕
+죗
+죙
+쬔
+쬘
+쬠
+쬡
+쵠
+쵤
+쵬
+쵭
+쵯
+쵱
+쾰
+퇸
+툇
+툉
+푄
+획
+횐
+횔
+횝
+횟
+횡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">귁
+귄
+귈
+귐
+귑
+귓
+뀐
+뀔
+뀜
+뀝
+뉜
+뉠
+뉨
+뉩
+뒨
+뒬
+뒵
+뒷
+뒹
+뛴
+뛸
+뜀
+뜁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뜅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+뤽
+륀
+륄
+륌
+륏
+륑
+뮌
+뮐
+뷕
+뷘
+뷜
+뷩
+쉭
+쉰
+쉴
+쉼
+쉽
+쉿
+슁
+쒼
+윅
+윈
+윌
+윔
+윕
+윗
+윙
+쥑
+쥔
+쥘
+쥠
+쥡
+쥣
+췬
+췰
+췸
+췹
+췻
+췽
+퀵
+퀸
+퀼
+큄
+큅
+큇
+큉
+튁
+튄
+튈
+튐
+튑
+튕
+퓐
+퓔
+퓜
+퓟
+휙
+휜
+휠
+휨
+휩
+휫
+휭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">갔
+갰
+겄
+겠
+겼
+괬
+궜
+깠
+깼
+껐
+꼈
+꽜
+꿨
+뀄
+났
+냈
+넜
+넸
+녔
+놨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+닸
+댔
+뎄
+뎠
+됐
+뒀
+딨
+땄
+땠
+떴
+뗐
+뗬
+랐
+랬
+렀
+렸
+뢨
+뤘
+맸
+멨
+몄
+뫘
+밌
+뱄
+벴
+볐
+봤
+뵀
+붰
+빴
+뺐
+뻤
+뼜
+샀
+샜
+섰
+셌
+셨
+쇘
+쉈
+쌌
+쌨
+썼
+쐈
+쐤
+쒔
+았
+앴
+었
+였
+옜
+왔
+웠
+있
+잤
+쟀
+졌
+좼
+줬
+짰
+쨌
+쩠
+쪘
+쫬
+쬈
+쭸
+찼
+챘
+첬
+쳤
+췄
+캤
+컸
+켰
+탔
+탰
+텄
+텼
+퉜
+팠
+팼
+펐
+폈
+했
+혔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17001,7 +19541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17139,6 +19679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17422,16 +19965,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X157" workbookViewId="0">
-      <selection activeCell="AO184" sqref="AO184"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="P217" sqref="P217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="45" t="s">
         <v>197</v>
       </c>
@@ -17463,10 +20003,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="45"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="45"/>
       <c r="B3" s="24" t="s">
         <v>338</v>
@@ -17498,32 +20038,35 @@
       <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="L3" t="s">
-        <v>347</v>
-      </c>
-      <c r="M3" t="s">
-        <v>347</v>
-      </c>
-      <c r="N3" t="s">
-        <v>347</v>
-      </c>
-      <c r="O3" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>347</v>
-      </c>
-      <c r="R3" t="s">
-        <v>347</v>
-      </c>
-      <c r="S3" t="s">
-        <v>347</v>
+      <c r="L3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="45"/>
       <c r="B4" s="1"/>
       <c r="C4" s="27"/>
@@ -17534,8 +20077,17 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="45"/>
       <c r="B5" s="24" t="s">
         <v>348</v>
@@ -17567,29 +20119,35 @@
       <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M5" t="s">
-        <v>347</v>
-      </c>
-      <c r="N5" t="s">
-        <v>347</v>
-      </c>
-      <c r="O5" t="s">
-        <v>347</v>
-      </c>
-      <c r="P5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>347</v>
-      </c>
-      <c r="R5" t="s">
-        <v>347</v>
+      <c r="P5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="45"/>
       <c r="B6" s="1"/>
       <c r="C6" s="27"/>
@@ -17600,8 +20158,17 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="45"/>
       <c r="B7" s="24" t="s">
         <v>356</v>
@@ -17633,29 +20200,35 @@
       <c r="K7" t="s">
         <v>347</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M7" t="s">
-        <v>347</v>
-      </c>
-      <c r="N7" t="s">
-        <v>347</v>
-      </c>
-      <c r="O7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>347</v>
-      </c>
-      <c r="R7" t="s">
-        <v>347</v>
+      <c r="P7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="45"/>
       <c r="B8" s="1"/>
       <c r="C8" s="27"/>
@@ -17666,8 +20239,17 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="45"/>
       <c r="B9" s="24" t="s">
         <v>364</v>
@@ -17699,29 +20281,35 @@
       <c r="K9" t="s">
         <v>347</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M9" t="s">
-        <v>347</v>
-      </c>
-      <c r="N9" t="s">
-        <v>347</v>
-      </c>
-      <c r="O9" t="s">
-        <v>347</v>
-      </c>
-      <c r="P9" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>347</v>
-      </c>
-      <c r="R9" t="s">
-        <v>347</v>
+      <c r="P9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="45"/>
       <c r="B10" s="1"/>
       <c r="C10" s="27"/>
@@ -17732,8 +20320,17 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="45"/>
       <c r="B11" s="24" t="s">
         <v>372</v>
@@ -17765,23 +20362,35 @@
       <c r="K11" t="s">
         <v>347</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O11" t="s">
-        <v>347</v>
-      </c>
-      <c r="P11" t="s">
-        <v>347</v>
+      <c r="T11" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="45"/>
       <c r="B12" s="1"/>
       <c r="C12" s="27"/>
@@ -17792,8 +20401,17 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="45"/>
       <c r="B13" s="24" t="s">
         <v>378</v>
@@ -17825,29 +20443,35 @@
       <c r="K13" t="s">
         <v>347</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M13" t="s">
-        <v>347</v>
-      </c>
-      <c r="N13" t="s">
-        <v>347</v>
-      </c>
-      <c r="O13" t="s">
-        <v>347</v>
-      </c>
-      <c r="P13" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>347</v>
-      </c>
-      <c r="R13" t="s">
-        <v>347</v>
+      <c r="P13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="45"/>
       <c r="B14" s="1"/>
       <c r="C14" s="27"/>
@@ -17858,8 +20482,17 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="45"/>
       <c r="B15" s="26" t="s">
         <v>386</v>
@@ -17891,29 +20524,35 @@
       <c r="K15" t="s">
         <v>347</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M15" t="s">
-        <v>347</v>
-      </c>
-      <c r="N15" t="s">
-        <v>347</v>
-      </c>
-      <c r="O15" t="s">
-        <v>347</v>
-      </c>
-      <c r="P15" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>347</v>
-      </c>
-      <c r="R15" t="s">
-        <v>347</v>
+      <c r="P15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="45"/>
       <c r="B16" s="1"/>
       <c r="C16" s="27"/>
@@ -17924,8 +20563,17 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="45"/>
       <c r="B17" s="24" t="s">
         <v>394</v>
@@ -17957,29 +20605,35 @@
       <c r="K17" t="s">
         <v>347</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M17" t="s">
-        <v>347</v>
-      </c>
-      <c r="N17" t="s">
-        <v>347</v>
-      </c>
-      <c r="O17" t="s">
-        <v>347</v>
-      </c>
-      <c r="P17" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>347</v>
-      </c>
-      <c r="R17" t="s">
-        <v>347</v>
+      <c r="P17" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="45"/>
       <c r="B18" s="1"/>
       <c r="C18" s="27"/>
@@ -17990,8 +20644,17 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" s="45"/>
       <c r="B19" s="24" t="s">
         <v>402</v>
@@ -18023,26 +20686,35 @@
       <c r="K19" t="s">
         <v>347</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N19" t="s">
-        <v>347</v>
-      </c>
-      <c r="O19" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>347</v>
+      <c r="T19" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" s="45"/>
       <c r="B20" s="1"/>
       <c r="C20" s="27"/>
@@ -18053,8 +20725,17 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" s="45"/>
       <c r="B21" s="24" t="s">
         <v>409</v>
@@ -18086,32 +20767,35 @@
       <c r="K21" t="s">
         <v>347</v>
       </c>
-      <c r="L21" t="s">
-        <v>347</v>
-      </c>
-      <c r="M21" t="s">
-        <v>347</v>
-      </c>
-      <c r="N21" t="s">
-        <v>347</v>
-      </c>
-      <c r="O21" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>347</v>
-      </c>
-      <c r="R21" t="s">
-        <v>347</v>
-      </c>
-      <c r="S21" t="s">
-        <v>347</v>
+      <c r="L21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" s="45"/>
       <c r="B22" s="1"/>
       <c r="C22" s="27"/>
@@ -18122,8 +20806,17 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" s="45"/>
       <c r="B23" s="26" t="s">
         <v>418</v>
@@ -18155,20 +20848,35 @@
       <c r="K23" t="s">
         <v>347</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O23" t="s">
+      <c r="S23" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="T23" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" s="45"/>
       <c r="B24" s="1"/>
       <c r="C24" s="27"/>
@@ -18179,8 +20887,17 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" s="45"/>
       <c r="B25" s="24" t="s">
         <v>423</v>
@@ -18212,32 +20929,35 @@
       <c r="K25" t="s">
         <v>347</v>
       </c>
-      <c r="L25" t="s">
-        <v>347</v>
-      </c>
-      <c r="M25" t="s">
-        <v>347</v>
-      </c>
-      <c r="N25" t="s">
-        <v>347</v>
-      </c>
-      <c r="O25" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>347</v>
-      </c>
-      <c r="R25" t="s">
-        <v>347</v>
-      </c>
-      <c r="S25" t="s">
-        <v>347</v>
+      <c r="L25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" s="45"/>
       <c r="B26" s="1"/>
       <c r="C26" s="27"/>
@@ -18248,8 +20968,17 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" s="45"/>
       <c r="B27" s="26" t="s">
         <v>432</v>
@@ -18281,32 +21010,35 @@
       <c r="K27" t="s">
         <v>347</v>
       </c>
-      <c r="L27" t="s">
-        <v>347</v>
-      </c>
-      <c r="M27" t="s">
-        <v>347</v>
-      </c>
-      <c r="N27" t="s">
-        <v>347</v>
-      </c>
-      <c r="O27" t="s">
-        <v>347</v>
-      </c>
-      <c r="P27" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>347</v>
-      </c>
-      <c r="R27" t="s">
-        <v>347</v>
-      </c>
-      <c r="S27" t="s">
-        <v>347</v>
+      <c r="L27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" s="45"/>
       <c r="B28" s="1"/>
       <c r="C28" s="27"/>
@@ -18317,8 +21049,17 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" s="45"/>
       <c r="B29" s="24" t="s">
         <v>441</v>
@@ -18350,26 +21091,35 @@
       <c r="K29" t="s">
         <v>347</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N29" t="s">
-        <v>347</v>
-      </c>
-      <c r="O29" t="s">
-        <v>347</v>
-      </c>
-      <c r="P29" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>347</v>
+      <c r="T29" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="45"/>
       <c r="B30" s="1"/>
       <c r="C30" s="27"/>
@@ -18380,8 +21130,17 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="45"/>
       <c r="B31" s="24" t="s">
         <v>448</v>
@@ -18413,29 +21172,35 @@
       <c r="K31" t="s">
         <v>347</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M31" t="s">
-        <v>347</v>
-      </c>
-      <c r="N31" t="s">
-        <v>347</v>
-      </c>
-      <c r="O31" t="s">
-        <v>347</v>
-      </c>
-      <c r="P31" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>347</v>
-      </c>
-      <c r="R31" t="s">
-        <v>347</v>
+      <c r="P31" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="45"/>
       <c r="B32" s="1"/>
       <c r="C32" s="27"/>
@@ -18446,6 +21211,15 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="45"/>
@@ -18479,26 +21253,32 @@
       <c r="K33" t="s">
         <v>347</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M33" t="s">
-        <v>347</v>
-      </c>
-      <c r="N33" t="s">
-        <v>347</v>
-      </c>
-      <c r="O33" t="s">
-        <v>347</v>
-      </c>
-      <c r="P33" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>347</v>
-      </c>
-      <c r="R33" t="s">
-        <v>347</v>
+      <c r="P33" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -18512,6 +21292,15 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="45"/>
@@ -18545,26 +21334,32 @@
       <c r="K35" t="s">
         <v>347</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M35" t="s">
-        <v>347</v>
-      </c>
-      <c r="N35" t="s">
-        <v>347</v>
-      </c>
-      <c r="O35" t="s">
-        <v>347</v>
-      </c>
-      <c r="P35" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>347</v>
-      </c>
-      <c r="R35" t="s">
-        <v>347</v>
+      <c r="P35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="S35" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -18578,6 +21373,15 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="45"/>
@@ -18611,26 +21415,32 @@
       <c r="K37" t="s">
         <v>347</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M37" t="s">
-        <v>347</v>
-      </c>
-      <c r="N37" t="s">
-        <v>347</v>
-      </c>
-      <c r="O37" t="s">
-        <v>347</v>
-      </c>
-      <c r="P37" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>347</v>
-      </c>
-      <c r="R37" t="s">
-        <v>347</v>
+      <c r="P37" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R37" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -18644,6 +21454,15 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="45"/>
@@ -18677,26 +21496,32 @@
       <c r="K39" t="s">
         <v>347</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M39" t="s">
-        <v>347</v>
-      </c>
-      <c r="N39" t="s">
-        <v>347</v>
-      </c>
-      <c r="O39" t="s">
-        <v>347</v>
-      </c>
-      <c r="P39" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>347</v>
-      </c>
-      <c r="R39" t="s">
-        <v>347</v>
+      <c r="P39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q39" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -34941,7 +37766,6 @@
   <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -35780,7 +38604,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="40" t="s">
-        <v>2837</v>
+        <v>2832</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -36092,7 +38916,6 @@
   <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -37307,9 +40130,6 @@
   <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="Q34" sqref="Q34"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -37320,7 +40140,7 @@
     <row r="1" spans="1:24">
       <c r="A1" s="39"/>
       <c r="B1" s="45" t="s">
-        <v>2838</v>
+        <v>2833</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -37332,7 +40152,7 @@
       <c r="J1" s="45"/>
       <c r="K1" s="3"/>
       <c r="L1" s="45" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
@@ -37340,7 +40160,7 @@
       <c r="P1" s="45"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="45" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
@@ -37352,66 +40172,66 @@
     <row r="2" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>2811</v>
+        <v>2633</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2729</v>
+        <v>2716</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2843</v>
+        <v>2838</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>2724</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>2798</v>
+        <v>2652</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="11" t="s">
         <v>2640</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>69</v>
+        <v>2693</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>2860</v>
+        <v>2641</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>2801</v>
+        <v>2904</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="39" t="s">
-        <v>2697</v>
+        <v>2898</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>2803</v>
+        <v>2654</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>2705</v>
+        <v>2909</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>2804</v>
+        <v>2682</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>2650</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>2806</v>
+        <v>2713</v>
       </c>
       <c r="X2" s="39" t="s">
         <v>2675</v>
@@ -37419,7 +40239,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>2772</v>
+        <v>2712</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -37438,8 +40258,12 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="22"/>
+      <c r="S3" s="9" t="s">
+        <v>2877</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>2905</v>
+      </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -37447,7 +40271,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="40" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -37490,7 +40314,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -37507,11 +40331,13 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
-        <v>2775</v>
+        <v>2895</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="9" t="s">
+        <v>2894</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -37595,9 +40421,11 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="40" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B9" s="11"/>
+        <v>2680</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2881</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -37623,7 +40451,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
-        <v>2779</v>
+        <v>2885</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -37644,7 +40472,9 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="20"/>
+      <c r="U10" s="9" t="s">
+        <v>2884</v>
+      </c>
       <c r="V10" s="4"/>
       <c r="W10" s="14"/>
       <c r="X10" s="4"/>
@@ -37668,7 +40498,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="9" t="s">
-        <v>2866</v>
+        <v>2859</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="4"/>
@@ -37681,7 +40511,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="40" t="s">
-        <v>2781</v>
+        <v>2684</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -37699,7 +40529,9 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="7" t="s">
+        <v>2891</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -37709,7 +40541,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="40" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -37799,7 +40631,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="41" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -37846,7 +40678,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="42" t="s">
-        <v>2847</v>
+        <v>2841</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
@@ -37859,7 +40691,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="11" t="s">
-        <v>2786</v>
+        <v>2889</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -37872,7 +40704,9 @@
       <c r="J18" s="11"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="9" t="s">
+        <v>2888</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -37887,7 +40721,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="11" t="s">
-        <v>2787</v>
+        <v>2908</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -37896,7 +40730,9 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="9" t="s">
+        <v>2874</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -37907,7 +40743,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
+      <c r="T19" s="9" t="s">
+        <v>2907</v>
+      </c>
       <c r="U19" s="40"/>
       <c r="V19" s="14"/>
       <c r="W19" s="4"/>
@@ -37945,7 +40783,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="11" t="s">
-        <v>2870</v>
+        <v>2722</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -37960,7 +40798,9 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="9" t="s">
+        <v>2903</v>
+      </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="4"/>
@@ -37970,12 +40810,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="14"/>
       <c r="X21" s="7" t="s">
-        <v>2869</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="40" t="s">
-        <v>2872</v>
+        <v>2718</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -37993,24 +40833,28 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="7" t="s">
+        <v>2897</v>
+      </c>
       <c r="T22" s="4"/>
-      <c r="U22" s="14"/>
+      <c r="U22" s="9" t="s">
+        <v>2917</v>
+      </c>
       <c r="V22" s="9" t="s">
-        <v>2873</v>
+        <v>2864</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="11" t="s">
-        <v>2846</v>
+        <v>2915</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9" t="s">
-        <v>2845</v>
+        <v>2840</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -38029,12 +40873,14 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="4"/>
+      <c r="W23" s="7" t="s">
+        <v>2914</v>
+      </c>
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="40" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -38048,7 +40894,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="N24" s="9" t="s">
+        <v>2867</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="3"/>
@@ -38063,7 +40911,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="40" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -38123,10 +40971,12 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="40" t="s">
-        <v>0</v>
+        <v>2872</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>2871</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -38166,7 +41016,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="9" t="s">
-        <v>2859</v>
+        <v>2853</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="40"/>
@@ -38181,7 +41031,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="40" t="s">
-        <v>2862</v>
+        <v>2855</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -38222,103 +41072,103 @@
     <row r="33" spans="1:49">
       <c r="A33" s="39"/>
       <c r="B33" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>2822</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>2823</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>2825</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>2826</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>2824</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>2828</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>2830</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>2832</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>2831</v>
-      </c>
       <c r="M33" s="4" t="s">
-        <v>2849</v>
+        <v>2843</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>2864</v>
+        <v>2857</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>2865</v>
+        <v>2858</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>2875</v>
+        <v>2866</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>0</v>
+        <v>2868</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>57</v>
+        <v>2869</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>60</v>
+        <v>2876</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>56</v>
+        <v>2879</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>64</v>
+        <v>2880</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>66</v>
+        <v>2887</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>69</v>
+        <v>2886</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>71</v>
+        <v>2893</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>2697</v>
+        <v>2900</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>2701</v>
+        <v>2901</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>2705</v>
+        <v>2902</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>2710</v>
+        <v>2910</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>2715</v>
+        <v>2911</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>2720</v>
+        <v>2912</v>
       </c>
       <c r="AI33" s="4" t="s">
         <v>2724</v>
@@ -38355,94 +41205,94 @@
         <v>2809</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="E34" s="36" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>2811</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>2815</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>2839</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>2844</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>2848</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>2854</v>
+      </c>
+      <c r="P34" s="36" t="s">
         <v>2856</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>2858</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>2812</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>2814</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>2816</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>2844</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>2848</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>2850</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>2854</v>
-      </c>
-      <c r="O34" s="36" t="s">
+      <c r="Q34" s="36" t="s">
+        <v>2860</v>
+      </c>
+      <c r="R34" s="36" t="s">
         <v>2861</v>
       </c>
-      <c r="P34" s="36" t="s">
-        <v>2863</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>2867</v>
-      </c>
-      <c r="R34" s="36" t="s">
-        <v>2868</v>
-      </c>
       <c r="S34" s="36" t="s">
-        <v>2874</v>
+        <v>2865</v>
       </c>
       <c r="T34" s="36" t="s">
-        <v>2833</v>
+        <v>2870</v>
       </c>
       <c r="U34" s="36" t="s">
-        <v>2834</v>
+        <v>2873</v>
       </c>
       <c r="V34" s="36" t="s">
-        <v>2835</v>
+        <v>2875</v>
       </c>
       <c r="W34" s="36" t="s">
-        <v>2836</v>
+        <v>2878</v>
       </c>
       <c r="X34" s="36" t="s">
-        <v>2759</v>
+        <v>2882</v>
       </c>
       <c r="Y34" s="36" t="s">
-        <v>2760</v>
+        <v>2883</v>
       </c>
       <c r="Z34" s="36" t="s">
-        <v>2761</v>
+        <v>2892</v>
       </c>
       <c r="AA34" s="36" t="s">
-        <v>2762</v>
+        <v>2890</v>
       </c>
       <c r="AB34" s="36" t="s">
-        <v>2763</v>
+        <v>2896</v>
       </c>
       <c r="AC34" s="36" t="s">
-        <v>2764</v>
+        <v>2899</v>
       </c>
       <c r="AD34" s="36" t="s">
-        <v>2765</v>
+        <v>2906</v>
       </c>
       <c r="AE34" s="36" t="s">
-        <v>2766</v>
+        <v>2913</v>
       </c>
       <c r="AF34" s="36" t="s">
-        <v>2767</v>
+        <v>2916</v>
       </c>
       <c r="AG34" s="36" t="s">
-        <v>2768</v>
+        <v>2918</v>
       </c>
       <c r="AH34" s="36" t="s">
         <v>2769</v>
@@ -38495,7 +41345,6 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -39448,7 +42297,6 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
